--- a/Excel/Milano/points_Milano.xlsx
+++ b/Excel/Milano/points_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF440"/>
+  <dimension ref="A1:AF436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46911,7 +46911,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45170</v>
+        <v>45176</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>5-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M423" t="inlineStr">
@@ -46958,21 +46958,21 @@
         </is>
       </c>
       <c r="N423" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O423" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P423" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>Outfield</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R423" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S423" t="inlineStr">
         <is>
@@ -46980,48 +46980,48 @@
         </is>
       </c>
       <c r="T423" t="n">
+        <v>5</v>
+      </c>
+      <c r="U423" t="n">
+        <v>0</v>
+      </c>
+      <c r="V423" t="n">
+        <v>0</v>
+      </c>
+      <c r="W423" t="n">
+        <v>0</v>
+      </c>
+      <c r="X423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z423" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA423" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB423" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC423" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD423" t="n">
         <v>4</v>
-      </c>
-      <c r="U423" t="n">
-        <v>0</v>
-      </c>
-      <c r="V423" t="n">
-        <v>0</v>
-      </c>
-      <c r="W423" t="n">
-        <v>0</v>
-      </c>
-      <c r="X423" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y423" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z423" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA423" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB423" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC423" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD423" t="n">
-        <v>5</v>
       </c>
       <c r="AE423" t="n">
         <v>3</v>
       </c>
       <c r="AF423" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>45170</v>
+        <v>45176</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -47034,7 +47034,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E424" t="n">
         <v>0</v>
@@ -47059,7 +47059,7 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>5-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M424" t="inlineStr">
@@ -47068,21 +47068,21 @@
         </is>
       </c>
       <c r="N424" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O424" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P424" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>Outfield</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R424" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S424" t="inlineStr">
         <is>
@@ -47090,52 +47090,52 @@
         </is>
       </c>
       <c r="T424" t="n">
+        <v>5</v>
+      </c>
+      <c r="U424" t="n">
+        <v>1</v>
+      </c>
+      <c r="V424" t="n">
+        <v>0</v>
+      </c>
+      <c r="W424" t="n">
+        <v>0</v>
+      </c>
+      <c r="X424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z424" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA424" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB424" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC424" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD424" t="n">
         <v>4</v>
-      </c>
-      <c r="U424" t="n">
-        <v>3</v>
-      </c>
-      <c r="V424" t="n">
-        <v>0</v>
-      </c>
-      <c r="W424" t="n">
-        <v>0</v>
-      </c>
-      <c r="X424" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y424" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z424" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA424" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB424" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC424" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD424" t="n">
-        <v>5</v>
       </c>
       <c r="AE424" t="n">
         <v>3</v>
       </c>
       <c r="AF424" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45170</v>
+        <v>45176</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Damiano Barbanera</t>
+          <t>Daniele Miccoli</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -47144,7 +47144,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E425" t="n">
         <v>0</v>
@@ -47169,7 +47169,7 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>5-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M425" t="inlineStr">
@@ -47178,21 +47178,21 @@
         </is>
       </c>
       <c r="N425" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O425" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P425" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>Outfield</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R425" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S425" t="inlineStr">
         <is>
@@ -47200,11 +47200,11 @@
         </is>
       </c>
       <c r="T425" t="n">
+        <v>5</v>
+      </c>
+      <c r="U425" t="n">
         <v>4</v>
       </c>
-      <c r="U425" t="n">
-        <v>1</v>
-      </c>
       <c r="V425" t="n">
         <v>0</v>
       </c>
@@ -47224,13 +47224,13 @@
         <v>0</v>
       </c>
       <c r="AB425" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD425" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE425" t="n">
         <v>3</v>
@@ -47241,11 +47241,11 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45170</v>
+        <v>45176</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Ludovico Righi</t>
+          <t>Andrea Limonta</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -47269,7 +47269,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J426" t="n">
         <v>2</v>
@@ -47279,7 +47279,7 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>5-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M426" t="inlineStr">
@@ -47288,21 +47288,21 @@
         </is>
       </c>
       <c r="N426" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O426" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P426" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>Outfield</t>
+          <t>Defensive</t>
         </is>
       </c>
       <c r="R426" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S426" t="inlineStr">
         <is>
@@ -47310,7 +47310,7 @@
         </is>
       </c>
       <c r="T426" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U426" t="n">
         <v>0</v>
@@ -47328,43 +47328,43 @@
         <v>0</v>
       </c>
       <c r="Z426" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AA426" t="n">
         <v>0</v>
       </c>
       <c r="AB426" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC426" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AD426" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE426" t="n">
         <v>3</v>
       </c>
       <c r="AF426" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45170</v>
+        <v>45176</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Federico Paolucci</t>
+          <t>Luca Stoppi</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team A</t>
         </is>
       </c>
       <c r="D427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E427" t="n">
         <v>0</v>
@@ -47389,7 +47389,7 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>5-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M427" t="inlineStr">
@@ -47398,32 +47398,32 @@
         </is>
       </c>
       <c r="N427" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O427" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P427" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>Outfield</t>
+          <t>Defensive</t>
         </is>
       </c>
       <c r="R427" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="S427" t="inlineStr">
         <is>
-          <t>Loss</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="T427" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V427" t="n">
         <v>0</v>
@@ -47444,43 +47444,43 @@
         <v>0</v>
       </c>
       <c r="AB427" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AC427" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD427" t="n">
         <v>0</v>
       </c>
       <c r="AE427" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF427" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45170</v>
+        <v>45176</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Mazzu</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team A</t>
         </is>
       </c>
       <c r="D428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E428" t="n">
         <v>0</v>
       </c>
       <c r="F428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G428" t="n">
         <v>0</v>
@@ -47499,7 +47499,7 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>5-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M428" t="inlineStr">
@@ -47508,95 +47508,95 @@
         </is>
       </c>
       <c r="N428" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O428" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P428" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>Outfield</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R428" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="S428" t="inlineStr">
         <is>
-          <t>Loss</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="T428" t="n">
+        <v>5</v>
+      </c>
+      <c r="U428" t="n">
+        <v>0</v>
+      </c>
+      <c r="V428" t="n">
+        <v>0</v>
+      </c>
+      <c r="W428" t="n">
+        <v>3</v>
+      </c>
+      <c r="X428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z428" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA428" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB428" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC428" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD428" t="n">
         <v>4</v>
       </c>
-      <c r="U428" t="n">
+      <c r="AE428" t="n">
         <v>3</v>
       </c>
-      <c r="V428" t="n">
-        <v>0</v>
-      </c>
-      <c r="W428" t="n">
-        <v>0</v>
-      </c>
-      <c r="X428" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y428" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z428" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA428" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB428" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC428" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD428" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE428" t="n">
-        <v>0</v>
-      </c>
       <c r="AF428" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45170</v>
+        <v>45176</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Mazzu</t>
+          <t>Damiano Barbanera</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team A</t>
         </is>
       </c>
       <c r="D429" t="n">
+        <v>0</v>
+      </c>
+      <c r="E429" t="n">
+        <v>1</v>
+      </c>
+      <c r="F429" t="n">
+        <v>0</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0</v>
+      </c>
+      <c r="H429" t="n">
         <v>2</v>
-      </c>
-      <c r="E429" t="n">
-        <v>0</v>
-      </c>
-      <c r="F429" t="n">
-        <v>0</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0</v>
-      </c>
-      <c r="H429" t="n">
-        <v>0</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -47609,7 +47609,7 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>5-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M429" t="inlineStr">
@@ -47618,74 +47618,74 @@
         </is>
       </c>
       <c r="N429" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O429" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P429" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
-          <t>Outfield</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R429" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="S429" t="inlineStr">
         <is>
-          <t>Loss</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="T429" t="n">
+        <v>5</v>
+      </c>
+      <c r="U429" t="n">
+        <v>0</v>
+      </c>
+      <c r="V429" t="n">
+        <v>-2</v>
+      </c>
+      <c r="W429" t="n">
+        <v>0</v>
+      </c>
+      <c r="X429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y429" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z429" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA429" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB429" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC429" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD429" t="n">
         <v>4</v>
       </c>
-      <c r="U429" t="n">
-        <v>2</v>
-      </c>
-      <c r="V429" t="n">
-        <v>0</v>
-      </c>
-      <c r="W429" t="n">
-        <v>0</v>
-      </c>
-      <c r="X429" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y429" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z429" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA429" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB429" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC429" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD429" t="n">
-        <v>0</v>
-      </c>
       <c r="AE429" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF429" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45170</v>
+        <v>45176</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Davide Ang</t>
+          <t>Emilano (Dani)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -47719,7 +47719,7 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>5-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M430" t="inlineStr">
@@ -47728,21 +47728,21 @@
         </is>
       </c>
       <c r="N430" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O430" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P430" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>Outfield</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R430" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="S430" t="inlineStr">
         <is>
@@ -47750,7 +47750,7 @@
         </is>
       </c>
       <c r="T430" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U430" t="n">
         <v>0</v>
@@ -47774,7 +47774,7 @@
         <v>0</v>
       </c>
       <c r="AB430" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AC430" t="n">
         <v>0</v>
@@ -47786,16 +47786,16 @@
         <v>0</v>
       </c>
       <c r="AF430" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45170</v>
+        <v>45176</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Andrea Scalambra</t>
+          <t>Sergio</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -47804,7 +47804,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E431" t="n">
         <v>0</v>
@@ -47829,7 +47829,7 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>5-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M431" t="inlineStr">
@@ -47838,21 +47838,21 @@
         </is>
       </c>
       <c r="N431" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O431" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P431" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>Outfield</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="R431" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="S431" t="inlineStr">
         <is>
@@ -47860,10 +47860,10 @@
         </is>
       </c>
       <c r="T431" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V431" t="n">
         <v>0</v>
@@ -47881,13 +47881,13 @@
         <v>0</v>
       </c>
       <c r="AA431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB431" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AC431" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD431" t="n">
         <v>0</v>
@@ -47896,21 +47896,21 @@
         <v>0</v>
       </c>
       <c r="AF431" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45179</v>
+        <v>45176</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Wissam Rahal</t>
+          <t>Jacopo</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team B</t>
         </is>
       </c>
       <c r="D432" t="n">
@@ -47935,30 +47935,30 @@
         <v>2</v>
       </c>
       <c r="K432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>5-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team A</t>
         </is>
       </c>
       <c r="N432" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O432" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P432" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>Outfield</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R432" t="n">
@@ -47970,7 +47970,7 @@
         </is>
       </c>
       <c r="T432" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U432" t="n">
         <v>0</v>
@@ -47994,10 +47994,10 @@
         <v>0</v>
       </c>
       <c r="AB432" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD432" t="n">
         <v>0</v>
@@ -48006,25 +48006,25 @@
         <v>0</v>
       </c>
       <c r="AF432" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45179</v>
+        <v>45176</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Cameron McAinsh</t>
+          <t>Andrea Silverstri</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team B</t>
         </is>
       </c>
       <c r="D433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E433" t="n">
         <v>0</v>
@@ -48045,30 +48045,30 @@
         <v>2</v>
       </c>
       <c r="K433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>5-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team A</t>
         </is>
       </c>
       <c r="N433" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O433" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P433" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>Outfield</t>
+          <t>Defensive</t>
         </is>
       </c>
       <c r="R433" t="n">
@@ -48080,35 +48080,35 @@
         </is>
       </c>
       <c r="T433" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U433" t="n">
+        <v>0</v>
+      </c>
+      <c r="V433" t="n">
+        <v>0</v>
+      </c>
+      <c r="W433" t="n">
+        <v>0</v>
+      </c>
+      <c r="X433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z433" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA433" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB433" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC433" t="n">
         <v>3</v>
       </c>
-      <c r="V433" t="n">
-        <v>0</v>
-      </c>
-      <c r="W433" t="n">
-        <v>0</v>
-      </c>
-      <c r="X433" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y433" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z433" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA433" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB433" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC433" t="n">
-        <v>2</v>
-      </c>
       <c r="AD433" t="n">
         <v>0</v>
       </c>
@@ -48116,21 +48116,21 @@
         <v>0</v>
       </c>
       <c r="AF433" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45179</v>
+        <v>45176</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Damiano Barbanera</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team B</t>
         </is>
       </c>
       <c r="D434" t="n">
@@ -48143,7 +48143,7 @@
         <v>0</v>
       </c>
       <c r="G434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H434" t="n">
         <v>0</v>
@@ -48155,30 +48155,30 @@
         <v>2</v>
       </c>
       <c r="K434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>5-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team A</t>
         </is>
       </c>
       <c r="N434" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O434" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P434" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>Outfield</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R434" t="n">
@@ -48190,7 +48190,7 @@
         </is>
       </c>
       <c r="T434" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U434" t="n">
         <v>1</v>
@@ -48202,7 +48202,7 @@
         <v>0</v>
       </c>
       <c r="X434" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y434" t="n">
         <v>0</v>
@@ -48214,10 +48214,10 @@
         <v>0</v>
       </c>
       <c r="AB434" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD434" t="n">
         <v>0</v>
@@ -48226,21 +48226,21 @@
         <v>0</v>
       </c>
       <c r="AF434" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45179</v>
+        <v>45176</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Ludovico Righi</t>
+          <t>Cocò (Stoppi)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team B</t>
         </is>
       </c>
       <c r="D435" t="n">
@@ -48265,30 +48265,30 @@
         <v>2</v>
       </c>
       <c r="K435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>5-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M435" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team A</t>
         </is>
       </c>
       <c r="N435" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O435" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P435" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>Outfield</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R435" t="n">
@@ -48300,7 +48300,7 @@
         </is>
       </c>
       <c r="T435" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U435" t="n">
         <v>0</v>
@@ -48324,10 +48324,10 @@
         <v>0</v>
       </c>
       <c r="AB435" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD435" t="n">
         <v>0</v>
@@ -48336,16 +48336,16 @@
         <v>0</v>
       </c>
       <c r="AF435" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45179</v>
+        <v>45176</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Federico Paolucci</t>
+          <t>Cri Diaz Lopez</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -48375,42 +48375,42 @@
         <v>2</v>
       </c>
       <c r="K436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>5-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M436" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team A</t>
         </is>
       </c>
       <c r="N436" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O436" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P436" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>Outfield</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R436" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="S436" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Loss</t>
         </is>
       </c>
       <c r="T436" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U436" t="n">
         <v>0</v>
@@ -48434,459 +48434,19 @@
         <v>0</v>
       </c>
       <c r="AB436" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AC436" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD436" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF436" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
-        <v>45179</v>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>Cerro</t>
-        </is>
-      </c>
-      <c r="C437" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="D437" t="n">
-        <v>3</v>
-      </c>
-      <c r="E437" t="n">
-        <v>0</v>
-      </c>
-      <c r="F437" t="n">
-        <v>0</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0</v>
-      </c>
-      <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="n">
-        <v>0</v>
-      </c>
-      <c r="J437" t="n">
-        <v>2</v>
-      </c>
-      <c r="K437" t="n">
-        <v>2</v>
-      </c>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>5-a-side</t>
-        </is>
-      </c>
-      <c r="M437" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="N437" t="n">
-        <v>2</v>
-      </c>
-      <c r="O437" t="n">
-        <v>6</v>
-      </c>
-      <c r="P437" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q437" t="inlineStr">
-        <is>
-          <t>Outfield</t>
-        </is>
-      </c>
-      <c r="R437" t="n">
-        <v>4</v>
-      </c>
-      <c r="S437" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="T437" t="n">
-        <v>4</v>
-      </c>
-      <c r="U437" t="n">
-        <v>3</v>
-      </c>
-      <c r="V437" t="n">
-        <v>0</v>
-      </c>
-      <c r="W437" t="n">
-        <v>0</v>
-      </c>
-      <c r="X437" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y437" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z437" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA437" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB437" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC437" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD437" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE437" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF437" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
-        <v>45179</v>
-      </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>Mazzu</t>
-        </is>
-      </c>
-      <c r="C438" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="D438" t="n">
-        <v>2</v>
-      </c>
-      <c r="E438" t="n">
-        <v>0</v>
-      </c>
-      <c r="F438" t="n">
-        <v>0</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0</v>
-      </c>
-      <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="n">
-        <v>0</v>
-      </c>
-      <c r="J438" t="n">
-        <v>2</v>
-      </c>
-      <c r="K438" t="n">
-        <v>2</v>
-      </c>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>5-a-side</t>
-        </is>
-      </c>
-      <c r="M438" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="N438" t="n">
-        <v>2</v>
-      </c>
-      <c r="O438" t="n">
-        <v>6</v>
-      </c>
-      <c r="P438" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q438" t="inlineStr">
-        <is>
-          <t>Outfield</t>
-        </is>
-      </c>
-      <c r="R438" t="n">
-        <v>4</v>
-      </c>
-      <c r="S438" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="T438" t="n">
-        <v>4</v>
-      </c>
-      <c r="U438" t="n">
-        <v>2</v>
-      </c>
-      <c r="V438" t="n">
-        <v>0</v>
-      </c>
-      <c r="W438" t="n">
-        <v>0</v>
-      </c>
-      <c r="X438" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y438" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z438" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA438" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB438" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC438" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD438" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE438" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF438" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
-        <v>45179</v>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>Davide Ang</t>
-        </is>
-      </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="D439" t="n">
-        <v>0</v>
-      </c>
-      <c r="E439" t="n">
-        <v>0</v>
-      </c>
-      <c r="F439" t="n">
-        <v>0</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0</v>
-      </c>
-      <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="n">
-        <v>0</v>
-      </c>
-      <c r="J439" t="n">
-        <v>2</v>
-      </c>
-      <c r="K439" t="n">
-        <v>2</v>
-      </c>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>5-a-side</t>
-        </is>
-      </c>
-      <c r="M439" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="N439" t="n">
-        <v>2</v>
-      </c>
-      <c r="O439" t="n">
-        <v>6</v>
-      </c>
-      <c r="P439" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q439" t="inlineStr">
-        <is>
-          <t>Outfield</t>
-        </is>
-      </c>
-      <c r="R439" t="n">
-        <v>4</v>
-      </c>
-      <c r="S439" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="T439" t="n">
-        <v>4</v>
-      </c>
-      <c r="U439" t="n">
-        <v>0</v>
-      </c>
-      <c r="V439" t="n">
-        <v>0</v>
-      </c>
-      <c r="W439" t="n">
-        <v>0</v>
-      </c>
-      <c r="X439" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y439" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z439" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA439" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB439" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC439" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD439" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE439" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF439" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
-        <v>45179</v>
-      </c>
-      <c r="B440" t="inlineStr">
-        <is>
-          <t>Andrea Scalambra</t>
-        </is>
-      </c>
-      <c r="C440" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="D440" t="n">
-        <v>0</v>
-      </c>
-      <c r="E440" t="n">
-        <v>0</v>
-      </c>
-      <c r="F440" t="n">
-        <v>0</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0</v>
-      </c>
-      <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="n">
-        <v>0</v>
-      </c>
-      <c r="J440" t="n">
-        <v>2</v>
-      </c>
-      <c r="K440" t="n">
-        <v>2</v>
-      </c>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>5-a-side</t>
-        </is>
-      </c>
-      <c r="M440" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="N440" t="n">
-        <v>2</v>
-      </c>
-      <c r="O440" t="n">
-        <v>6</v>
-      </c>
-      <c r="P440" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q440" t="inlineStr">
-        <is>
-          <t>Outfield</t>
-        </is>
-      </c>
-      <c r="R440" t="n">
-        <v>4</v>
-      </c>
-      <c r="S440" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="T440" t="n">
-        <v>4</v>
-      </c>
-      <c r="U440" t="n">
-        <v>0</v>
-      </c>
-      <c r="V440" t="n">
-        <v>0</v>
-      </c>
-      <c r="W440" t="n">
-        <v>0</v>
-      </c>
-      <c r="X440" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y440" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z440" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA440" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB440" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC440" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD440" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE440" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF440" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/points_Milano.xlsx
+++ b/Excel/Milano/points_Milano.xlsx
@@ -3355,7 +3355,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cocò (Stoppi)</t>
+          <t>Coco' (Stoppi)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -38115,7 +38115,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Cocò (Stoppi)</t>
+          <t>Coco' (Stoppi)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -48235,7 +48235,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Cocò (Stoppi)</t>
+          <t>Coco' (Stoppi)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">

--- a/Excel/Milano/points_Milano.xlsx
+++ b/Excel/Milano/points_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF436"/>
+  <dimension ref="A1:AF449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,7 +639,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7-a-side</t>
+          <t>11-a-side</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -654,11 +654,11 @@
         <v>13</v>
       </c>
       <c r="P2" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Defensive</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>7-a-side</t>
+          <t>11-a-side</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -764,7 +764,7 @@
         <v>13</v>
       </c>
       <c r="P3" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
         <v>-2</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -859,7 +859,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>7-a-side</t>
+          <t>11-a-side</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -874,11 +874,11 @@
         <v>13</v>
       </c>
       <c r="P4" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Offensive</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -969,7 +969,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>7-a-side</t>
+          <t>11-a-side</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -984,11 +984,11 @@
         <v>13</v>
       </c>
       <c r="P5" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Offensive</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>7-a-side</t>
+          <t>11-a-side</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1094,11 +1094,11 @@
         <v>13</v>
       </c>
       <c r="P6" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Offensive</t>
+          <t>Forward</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>7-a-side</t>
+          <t>11-a-side</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1204,11 +1204,11 @@
         <v>13</v>
       </c>
       <c r="P7" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Offensive</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1220,10 +1220,10 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>7-a-side</t>
+          <t>11-a-side</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1314,11 +1314,11 @@
         <v>13</v>
       </c>
       <c r="P8" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Offensive</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>7-a-side</t>
+          <t>11-a-side</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1424,11 +1424,11 @@
         <v>13</v>
       </c>
       <c r="P9" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Defensive</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>7-a-side</t>
+          <t>11-a-side</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1534,11 +1534,11 @@
         <v>13</v>
       </c>
       <c r="P10" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Offensive</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1550,10 +1550,10 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>7-a-side</t>
+          <t>11-a-side</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1644,11 +1644,11 @@
         <v>13</v>
       </c>
       <c r="P11" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Offensive</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
         <v>3</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>7-a-side</t>
+          <t>11-a-side</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1754,11 +1754,11 @@
         <v>13</v>
       </c>
       <c r="P12" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Offensive</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1800,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
         <v>3</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>7-a-side</t>
+          <t>11-a-side</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1864,11 +1864,11 @@
         <v>13</v>
       </c>
       <c r="P13" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Offensive</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="R13" t="n">
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>3</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>7-a-side</t>
+          <t>11-a-side</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1974,11 +1974,11 @@
         <v>13</v>
       </c>
       <c r="P14" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Offensive</t>
+          <t>Forward</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1990,10 +1990,10 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U14" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>7-a-side</t>
+          <t>11-a-side</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2084,11 +2084,11 @@
         <v>13</v>
       </c>
       <c r="P15" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Offensive</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="R15" t="n">
@@ -2100,10 +2100,10 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2130,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
         <v>3</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -48447,6 +48447,1436 @@
       </c>
       <c r="AF436" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Andrea Limonta</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>0</v>
+      </c>
+      <c r="E437" t="n">
+        <v>0</v>
+      </c>
+      <c r="F437" t="n">
+        <v>1</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="n">
+        <v>0</v>
+      </c>
+      <c r="J437" t="n">
+        <v>1</v>
+      </c>
+      <c r="K437" t="n">
+        <v>1</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>11-a-side</t>
+        </is>
+      </c>
+      <c r="M437" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N437" t="n">
+        <v>18</v>
+      </c>
+      <c r="O437" t="n">
+        <v>13</v>
+      </c>
+      <c r="P437" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q437" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="R437" t="n">
+        <v>-5</v>
+      </c>
+      <c r="S437" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T437" t="n">
+        <v>6</v>
+      </c>
+      <c r="U437" t="n">
+        <v>0</v>
+      </c>
+      <c r="V437" t="n">
+        <v>0</v>
+      </c>
+      <c r="W437" t="n">
+        <v>5</v>
+      </c>
+      <c r="X437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z437" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA437" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB437" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC437" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD437" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE437" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF437" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Luca Stoppi</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>2</v>
+      </c>
+      <c r="E438" t="n">
+        <v>1</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0</v>
+      </c>
+      <c r="J438" t="n">
+        <v>1</v>
+      </c>
+      <c r="K438" t="n">
+        <v>1</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>11-a-side</t>
+        </is>
+      </c>
+      <c r="M438" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N438" t="n">
+        <v>18</v>
+      </c>
+      <c r="O438" t="n">
+        <v>13</v>
+      </c>
+      <c r="P438" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R438" t="n">
+        <v>-5</v>
+      </c>
+      <c r="S438" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T438" t="n">
+        <v>6</v>
+      </c>
+      <c r="U438" t="n">
+        <v>4</v>
+      </c>
+      <c r="V438" t="n">
+        <v>-2</v>
+      </c>
+      <c r="W438" t="n">
+        <v>0</v>
+      </c>
+      <c r="X438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z438" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA438" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB438" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC438" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD438" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE438" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF438" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Riccardo Ricci</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>0</v>
+      </c>
+      <c r="E439" t="n">
+        <v>0</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0</v>
+      </c>
+      <c r="J439" t="n">
+        <v>1</v>
+      </c>
+      <c r="K439" t="n">
+        <v>1</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>11-a-side</t>
+        </is>
+      </c>
+      <c r="M439" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N439" t="n">
+        <v>18</v>
+      </c>
+      <c r="O439" t="n">
+        <v>13</v>
+      </c>
+      <c r="P439" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q439" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="R439" t="n">
+        <v>-5</v>
+      </c>
+      <c r="S439" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T439" t="n">
+        <v>6</v>
+      </c>
+      <c r="U439" t="n">
+        <v>0</v>
+      </c>
+      <c r="V439" t="n">
+        <v>0</v>
+      </c>
+      <c r="W439" t="n">
+        <v>0</v>
+      </c>
+      <c r="X439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z439" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA439" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB439" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC439" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD439" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE439" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF439" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Marco Taglio</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>3</v>
+      </c>
+      <c r="E440" t="n">
+        <v>0</v>
+      </c>
+      <c r="F440" t="n">
+        <v>0</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0</v>
+      </c>
+      <c r="J440" t="n">
+        <v>1</v>
+      </c>
+      <c r="K440" t="n">
+        <v>1</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>11-a-side</t>
+        </is>
+      </c>
+      <c r="M440" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N440" t="n">
+        <v>18</v>
+      </c>
+      <c r="O440" t="n">
+        <v>13</v>
+      </c>
+      <c r="P440" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q440" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="R440" t="n">
+        <v>-5</v>
+      </c>
+      <c r="S440" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T440" t="n">
+        <v>6</v>
+      </c>
+      <c r="U440" t="n">
+        <v>6</v>
+      </c>
+      <c r="V440" t="n">
+        <v>0</v>
+      </c>
+      <c r="W440" t="n">
+        <v>0</v>
+      </c>
+      <c r="X440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z440" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA440" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB440" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC440" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD440" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE440" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF440" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Mazzu</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>7</v>
+      </c>
+      <c r="E441" t="n">
+        <v>0</v>
+      </c>
+      <c r="F441" t="n">
+        <v>0</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0</v>
+      </c>
+      <c r="J441" t="n">
+        <v>1</v>
+      </c>
+      <c r="K441" t="n">
+        <v>1</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>11-a-side</t>
+        </is>
+      </c>
+      <c r="M441" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N441" t="n">
+        <v>18</v>
+      </c>
+      <c r="O441" t="n">
+        <v>13</v>
+      </c>
+      <c r="P441" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q441" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="R441" t="n">
+        <v>-5</v>
+      </c>
+      <c r="S441" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T441" t="n">
+        <v>6</v>
+      </c>
+      <c r="U441" t="n">
+        <v>14</v>
+      </c>
+      <c r="V441" t="n">
+        <v>0</v>
+      </c>
+      <c r="W441" t="n">
+        <v>0</v>
+      </c>
+      <c r="X441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z441" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA441" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB441" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC441" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD441" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE441" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF441" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Rudy Vitiello</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>1</v>
+      </c>
+      <c r="E442" t="n">
+        <v>0</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0</v>
+      </c>
+      <c r="H442" t="n">
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0</v>
+      </c>
+      <c r="J442" t="n">
+        <v>1</v>
+      </c>
+      <c r="K442" t="n">
+        <v>1</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>11-a-side</t>
+        </is>
+      </c>
+      <c r="M442" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N442" t="n">
+        <v>18</v>
+      </c>
+      <c r="O442" t="n">
+        <v>13</v>
+      </c>
+      <c r="P442" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q442" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="R442" t="n">
+        <v>-5</v>
+      </c>
+      <c r="S442" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T442" t="n">
+        <v>6</v>
+      </c>
+      <c r="U442" t="n">
+        <v>2</v>
+      </c>
+      <c r="V442" t="n">
+        <v>0</v>
+      </c>
+      <c r="W442" t="n">
+        <v>0</v>
+      </c>
+      <c r="X442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y442" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z442" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA442" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB442" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC442" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD442" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE442" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF442" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Carlo Tempesta</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>0</v>
+      </c>
+      <c r="E443" t="n">
+        <v>0</v>
+      </c>
+      <c r="F443" t="n">
+        <v>0</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="n">
+        <v>1</v>
+      </c>
+      <c r="J443" t="n">
+        <v>1</v>
+      </c>
+      <c r="K443" t="n">
+        <v>1</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>11-a-side</t>
+        </is>
+      </c>
+      <c r="M443" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N443" t="n">
+        <v>18</v>
+      </c>
+      <c r="O443" t="n">
+        <v>13</v>
+      </c>
+      <c r="P443" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="R443" t="n">
+        <v>-5</v>
+      </c>
+      <c r="S443" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T443" t="n">
+        <v>6</v>
+      </c>
+      <c r="U443" t="n">
+        <v>0</v>
+      </c>
+      <c r="V443" t="n">
+        <v>0</v>
+      </c>
+      <c r="W443" t="n">
+        <v>0</v>
+      </c>
+      <c r="X443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z443" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AA443" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB443" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC443" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD443" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE443" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Fabrizio Limonta</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>0</v>
+      </c>
+      <c r="E444" t="n">
+        <v>0</v>
+      </c>
+      <c r="F444" t="n">
+        <v>0</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0</v>
+      </c>
+      <c r="J444" t="n">
+        <v>1</v>
+      </c>
+      <c r="K444" t="n">
+        <v>1</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>11-a-side</t>
+        </is>
+      </c>
+      <c r="M444" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N444" t="n">
+        <v>18</v>
+      </c>
+      <c r="O444" t="n">
+        <v>13</v>
+      </c>
+      <c r="P444" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q444" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="R444" t="n">
+        <v>5</v>
+      </c>
+      <c r="S444" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T444" t="n">
+        <v>6</v>
+      </c>
+      <c r="U444" t="n">
+        <v>0</v>
+      </c>
+      <c r="V444" t="n">
+        <v>0</v>
+      </c>
+      <c r="W444" t="n">
+        <v>0</v>
+      </c>
+      <c r="X444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z444" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA444" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB444" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC444" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD444" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE444" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF444" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Cameron McAinsh</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>5</v>
+      </c>
+      <c r="E445" t="n">
+        <v>0</v>
+      </c>
+      <c r="F445" t="n">
+        <v>0</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0</v>
+      </c>
+      <c r="J445" t="n">
+        <v>1</v>
+      </c>
+      <c r="K445" t="n">
+        <v>1</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>11-a-side</t>
+        </is>
+      </c>
+      <c r="M445" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N445" t="n">
+        <v>18</v>
+      </c>
+      <c r="O445" t="n">
+        <v>13</v>
+      </c>
+      <c r="P445" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q445" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="R445" t="n">
+        <v>5</v>
+      </c>
+      <c r="S445" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T445" t="n">
+        <v>6</v>
+      </c>
+      <c r="U445" t="n">
+        <v>10</v>
+      </c>
+      <c r="V445" t="n">
+        <v>0</v>
+      </c>
+      <c r="W445" t="n">
+        <v>0</v>
+      </c>
+      <c r="X445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z445" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA445" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB445" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC445" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD445" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE445" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF445" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Giovanni Aiello</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>1</v>
+      </c>
+      <c r="E446" t="n">
+        <v>0</v>
+      </c>
+      <c r="F446" t="n">
+        <v>0</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0</v>
+      </c>
+      <c r="J446" t="n">
+        <v>1</v>
+      </c>
+      <c r="K446" t="n">
+        <v>1</v>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>11-a-side</t>
+        </is>
+      </c>
+      <c r="M446" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N446" t="n">
+        <v>18</v>
+      </c>
+      <c r="O446" t="n">
+        <v>13</v>
+      </c>
+      <c r="P446" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q446" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="R446" t="n">
+        <v>5</v>
+      </c>
+      <c r="S446" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T446" t="n">
+        <v>6</v>
+      </c>
+      <c r="U446" t="n">
+        <v>2</v>
+      </c>
+      <c r="V446" t="n">
+        <v>0</v>
+      </c>
+      <c r="W446" t="n">
+        <v>0</v>
+      </c>
+      <c r="X446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z446" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA446" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB446" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC446" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD446" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE446" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF446" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Cri Diaz Lopez</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>1</v>
+      </c>
+      <c r="E447" t="n">
+        <v>0</v>
+      </c>
+      <c r="F447" t="n">
+        <v>0</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0</v>
+      </c>
+      <c r="J447" t="n">
+        <v>1</v>
+      </c>
+      <c r="K447" t="n">
+        <v>1</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>11-a-side</t>
+        </is>
+      </c>
+      <c r="M447" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N447" t="n">
+        <v>18</v>
+      </c>
+      <c r="O447" t="n">
+        <v>13</v>
+      </c>
+      <c r="P447" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q447" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="R447" t="n">
+        <v>5</v>
+      </c>
+      <c r="S447" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T447" t="n">
+        <v>6</v>
+      </c>
+      <c r="U447" t="n">
+        <v>2</v>
+      </c>
+      <c r="V447" t="n">
+        <v>0</v>
+      </c>
+      <c r="W447" t="n">
+        <v>0</v>
+      </c>
+      <c r="X447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z447" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA447" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB447" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC447" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD447" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE447" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF447" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Tito</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>2</v>
+      </c>
+      <c r="E448" t="n">
+        <v>0</v>
+      </c>
+      <c r="F448" t="n">
+        <v>0</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0</v>
+      </c>
+      <c r="J448" t="n">
+        <v>1</v>
+      </c>
+      <c r="K448" t="n">
+        <v>1</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>11-a-side</t>
+        </is>
+      </c>
+      <c r="M448" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N448" t="n">
+        <v>18</v>
+      </c>
+      <c r="O448" t="n">
+        <v>13</v>
+      </c>
+      <c r="P448" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q448" t="inlineStr">
+        <is>
+          <t>Midfielder</t>
+        </is>
+      </c>
+      <c r="R448" t="n">
+        <v>5</v>
+      </c>
+      <c r="S448" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T448" t="n">
+        <v>6</v>
+      </c>
+      <c r="U448" t="n">
+        <v>4</v>
+      </c>
+      <c r="V448" t="n">
+        <v>0</v>
+      </c>
+      <c r="W448" t="n">
+        <v>0</v>
+      </c>
+      <c r="X448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z448" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA448" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB448" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC448" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD448" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE448" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF448" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Damiano Barbanera</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>6</v>
+      </c>
+      <c r="E449" t="n">
+        <v>0</v>
+      </c>
+      <c r="F449" t="n">
+        <v>0</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="n">
+        <v>0</v>
+      </c>
+      <c r="J449" t="n">
+        <v>1</v>
+      </c>
+      <c r="K449" t="n">
+        <v>1</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>11-a-side</t>
+        </is>
+      </c>
+      <c r="M449" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N449" t="n">
+        <v>18</v>
+      </c>
+      <c r="O449" t="n">
+        <v>13</v>
+      </c>
+      <c r="P449" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q449" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="R449" t="n">
+        <v>5</v>
+      </c>
+      <c r="S449" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T449" t="n">
+        <v>6</v>
+      </c>
+      <c r="U449" t="n">
+        <v>12</v>
+      </c>
+      <c r="V449" t="n">
+        <v>0</v>
+      </c>
+      <c r="W449" t="n">
+        <v>0</v>
+      </c>
+      <c r="X449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z449" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA449" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB449" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC449" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD449" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE449" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF449" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/points_Milano.xlsx
+++ b/Excel/Milano/points_Milano.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -654,11 +654,11 @@
         <v>13</v>
       </c>
       <c r="P2" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Defensive</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -764,7 +764,7 @@
         <v>13</v>
       </c>
       <c r="P3" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
         <v>-2</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -859,7 +859,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -874,11 +874,11 @@
         <v>13</v>
       </c>
       <c r="P4" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -969,7 +969,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -984,11 +984,11 @@
         <v>13</v>
       </c>
       <c r="P5" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1094,11 +1094,11 @@
         <v>13</v>
       </c>
       <c r="P6" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Forward</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U6" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1204,11 +1204,11 @@
         <v>13</v>
       </c>
       <c r="P7" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1220,10 +1220,10 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1314,11 +1314,11 @@
         <v>13</v>
       </c>
       <c r="P8" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1424,11 +1424,11 @@
         <v>13</v>
       </c>
       <c r="P9" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Defensive</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1534,11 +1534,11 @@
         <v>13</v>
       </c>
       <c r="P10" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1550,10 +1550,10 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="AF10" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1644,11 +1644,11 @@
         <v>13</v>
       </c>
       <c r="P11" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>3</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1754,11 +1754,11 @@
         <v>13</v>
       </c>
       <c r="P12" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1800,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>3</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1864,11 +1864,11 @@
         <v>13</v>
       </c>
       <c r="P13" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R13" t="n">
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>3</v>
       </c>
       <c r="AF13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1974,11 +1974,11 @@
         <v>13</v>
       </c>
       <c r="P14" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Forward</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1990,10 +1990,10 @@
         </is>
       </c>
       <c r="T14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U14" t="n">
         <v>6</v>
-      </c>
-      <c r="U14" t="n">
-        <v>12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2084,11 +2084,11 @@
         <v>13</v>
       </c>
       <c r="P15" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R15" t="n">
@@ -2100,10 +2100,10 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2130,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>3</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -48451,7 +48451,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>44938</v>
+        <v>45183</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
@@ -48482,14 +48482,14 @@
         <v>0</v>
       </c>
       <c r="J437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M437" t="inlineStr">
@@ -48504,11 +48504,11 @@
         <v>13</v>
       </c>
       <c r="P437" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Defensive</t>
         </is>
       </c>
       <c r="R437" t="n">
@@ -48520,7 +48520,7 @@
         </is>
       </c>
       <c r="T437" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U437" t="n">
         <v>0</v>
@@ -48529,7 +48529,7 @@
         <v>0</v>
       </c>
       <c r="W437" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X437" t="n">
         <v>0</v>
@@ -48556,12 +48556,12 @@
         <v>0</v>
       </c>
       <c r="AF437" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>44938</v>
+        <v>45183</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -48592,14 +48592,14 @@
         <v>0</v>
       </c>
       <c r="J438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M438" t="inlineStr">
@@ -48614,7 +48614,7 @@
         <v>13</v>
       </c>
       <c r="P438" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -48630,10 +48630,10 @@
         </is>
       </c>
       <c r="T438" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U438" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V438" t="n">
         <v>-2</v>
@@ -48666,12 +48666,12 @@
         <v>0</v>
       </c>
       <c r="AF438" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>44938</v>
+        <v>45183</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
@@ -48702,14 +48702,14 @@
         <v>0</v>
       </c>
       <c r="J439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M439" t="inlineStr">
@@ -48724,11 +48724,11 @@
         <v>13</v>
       </c>
       <c r="P439" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R439" t="n">
@@ -48740,7 +48740,7 @@
         </is>
       </c>
       <c r="T439" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U439" t="n">
         <v>0</v>
@@ -48776,12 +48776,12 @@
         <v>0</v>
       </c>
       <c r="AF439" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>44938</v>
+        <v>45183</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
@@ -48812,14 +48812,14 @@
         <v>0</v>
       </c>
       <c r="J440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M440" t="inlineStr">
@@ -48834,11 +48834,11 @@
         <v>13</v>
       </c>
       <c r="P440" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R440" t="n">
@@ -48850,10 +48850,10 @@
         </is>
       </c>
       <c r="T440" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U440" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V440" t="n">
         <v>0</v>
@@ -48886,12 +48886,12 @@
         <v>0</v>
       </c>
       <c r="AF440" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>44938</v>
+        <v>45183</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
@@ -48922,14 +48922,14 @@
         <v>0</v>
       </c>
       <c r="J441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M441" t="inlineStr">
@@ -48944,11 +48944,11 @@
         <v>13</v>
       </c>
       <c r="P441" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>Forward</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R441" t="n">
@@ -48960,10 +48960,10 @@
         </is>
       </c>
       <c r="T441" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U441" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="V441" t="n">
         <v>0</v>
@@ -48996,12 +48996,12 @@
         <v>0</v>
       </c>
       <c r="AF441" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>44938</v>
+        <v>45183</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -49032,14 +49032,14 @@
         <v>0</v>
       </c>
       <c r="J442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M442" t="inlineStr">
@@ -49054,11 +49054,11 @@
         <v>13</v>
       </c>
       <c r="P442" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R442" t="n">
@@ -49070,10 +49070,10 @@
         </is>
       </c>
       <c r="T442" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V442" t="n">
         <v>0</v>
@@ -49085,7 +49085,7 @@
         <v>0</v>
       </c>
       <c r="Y442" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z442" t="n">
         <v>0</v>
@@ -49106,12 +49106,12 @@
         <v>0</v>
       </c>
       <c r="AF442" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>44938</v>
+        <v>45183</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -49142,14 +49142,14 @@
         <v>1</v>
       </c>
       <c r="J443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M443" t="inlineStr">
@@ -49164,11 +49164,11 @@
         <v>13</v>
       </c>
       <c r="P443" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R443" t="n">
@@ -49180,7 +49180,7 @@
         </is>
       </c>
       <c r="T443" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U443" t="n">
         <v>0</v>
@@ -49198,7 +49198,7 @@
         <v>0</v>
       </c>
       <c r="Z443" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AA443" t="n">
         <v>0</v>
@@ -49221,7 +49221,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>44938</v>
+        <v>45183</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -49252,14 +49252,14 @@
         <v>0</v>
       </c>
       <c r="J444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M444" t="inlineStr">
@@ -49274,11 +49274,11 @@
         <v>13</v>
       </c>
       <c r="P444" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Defensive</t>
         </is>
       </c>
       <c r="R444" t="n">
@@ -49290,7 +49290,7 @@
         </is>
       </c>
       <c r="T444" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U444" t="n">
         <v>0</v>
@@ -49326,12 +49326,12 @@
         <v>3</v>
       </c>
       <c r="AF444" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>44938</v>
+        <v>45183</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -49362,14 +49362,14 @@
         <v>0</v>
       </c>
       <c r="J445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M445" t="inlineStr">
@@ -49384,11 +49384,11 @@
         <v>13</v>
       </c>
       <c r="P445" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R445" t="n">
@@ -49400,10 +49400,10 @@
         </is>
       </c>
       <c r="T445" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U445" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V445" t="n">
         <v>0</v>
@@ -49436,12 +49436,12 @@
         <v>3</v>
       </c>
       <c r="AF445" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>44938</v>
+        <v>45183</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -49472,14 +49472,14 @@
         <v>0</v>
       </c>
       <c r="J446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M446" t="inlineStr">
@@ -49494,11 +49494,11 @@
         <v>13</v>
       </c>
       <c r="P446" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R446" t="n">
@@ -49510,10 +49510,10 @@
         </is>
       </c>
       <c r="T446" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V446" t="n">
         <v>0</v>
@@ -49540,18 +49540,18 @@
         <v>0</v>
       </c>
       <c r="AD446" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE446" t="n">
         <v>3</v>
       </c>
       <c r="AF446" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>44938</v>
+        <v>45183</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -49582,14 +49582,14 @@
         <v>0</v>
       </c>
       <c r="J447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M447" t="inlineStr">
@@ -49604,11 +49604,11 @@
         <v>13</v>
       </c>
       <c r="P447" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R447" t="n">
@@ -49620,10 +49620,10 @@
         </is>
       </c>
       <c r="T447" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U447" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V447" t="n">
         <v>0</v>
@@ -49650,18 +49650,18 @@
         <v>0</v>
       </c>
       <c r="AD447" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE447" t="n">
         <v>3</v>
       </c>
       <c r="AF447" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>44938</v>
+        <v>45183</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -49692,14 +49692,14 @@
         <v>0</v>
       </c>
       <c r="J448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M448" t="inlineStr">
@@ -49714,11 +49714,11 @@
         <v>13</v>
       </c>
       <c r="P448" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R448" t="n">
@@ -49730,10 +49730,10 @@
         </is>
       </c>
       <c r="T448" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U448" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V448" t="n">
         <v>0</v>
@@ -49766,12 +49766,12 @@
         <v>3</v>
       </c>
       <c r="AF448" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>44938</v>
+        <v>45183</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
@@ -49802,14 +49802,14 @@
         <v>0</v>
       </c>
       <c r="J449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="M449" t="inlineStr">
@@ -49824,11 +49824,11 @@
         <v>13</v>
       </c>
       <c r="P449" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>Forward</t>
+          <t>Offensive</t>
         </is>
       </c>
       <c r="R449" t="n">
@@ -49840,10 +49840,10 @@
         </is>
       </c>
       <c r="T449" t="n">
+        <v>5</v>
+      </c>
+      <c r="U449" t="n">
         <v>6</v>
-      </c>
-      <c r="U449" t="n">
-        <v>12</v>
       </c>
       <c r="V449" t="n">
         <v>0</v>
@@ -49870,13 +49870,13 @@
         <v>0</v>
       </c>
       <c r="AD449" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE449" t="n">
         <v>3</v>
       </c>
       <c r="AF449" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/points_Milano.xlsx
+++ b/Excel/Milano/points_Milano.xlsx
@@ -48675,7 +48675,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Riccardo Ricci</t>
+          <t>Mario Croce</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -48785,7 +48785,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Marco Taglio</t>
+          <t>Gian Pareo</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -48838,7 +48838,7 @@
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>Offensive</t>
+          <t>Defensive</t>
         </is>
       </c>
       <c r="R440" t="n">
@@ -48916,7 +48916,7 @@
         <v>0</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -48975,7 +48975,7 @@
         <v>0</v>
       </c>
       <c r="Y441" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z441" t="n">
         <v>0</v>
@@ -48996,7 +48996,7 @@
         <v>0</v>
       </c>
       <c r="AF441" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="442">
@@ -49026,7 +49026,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -49085,7 +49085,7 @@
         <v>0</v>
       </c>
       <c r="Y442" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z442" t="n">
         <v>0</v>
@@ -49106,7 +49106,7 @@
         <v>0</v>
       </c>
       <c r="AF442" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="443">
@@ -49335,7 +49335,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Cameron McAinsh</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -49388,7 +49388,7 @@
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>Offensive</t>
+          <t>Defensive</t>
         </is>
       </c>
       <c r="R445" t="n">
@@ -49430,13 +49430,13 @@
         <v>0</v>
       </c>
       <c r="AD445" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE445" t="n">
         <v>3</v>
       </c>
       <c r="AF445" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="446">

--- a/Excel/Milano/points_Milano.xlsx
+++ b/Excel/Milano/points_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF449"/>
+  <dimension ref="A1:AF422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46909,2976 +46909,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
-        <v>45176</v>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>Wissam Rahal</t>
-        </is>
-      </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="D423" t="n">
-        <v>0</v>
-      </c>
-      <c r="E423" t="n">
-        <v>0</v>
-      </c>
-      <c r="F423" t="n">
-        <v>0</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0</v>
-      </c>
-      <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="n">
-        <v>0</v>
-      </c>
-      <c r="J423" t="n">
-        <v>2</v>
-      </c>
-      <c r="K423" t="n">
-        <v>1</v>
-      </c>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M423" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N423" t="n">
-        <v>7</v>
-      </c>
-      <c r="O423" t="n">
-        <v>3</v>
-      </c>
-      <c r="P423" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q423" t="inlineStr">
-        <is>
-          <t>Offensive</t>
-        </is>
-      </c>
-      <c r="R423" t="n">
-        <v>4</v>
-      </c>
-      <c r="S423" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="T423" t="n">
-        <v>5</v>
-      </c>
-      <c r="U423" t="n">
-        <v>0</v>
-      </c>
-      <c r="V423" t="n">
-        <v>0</v>
-      </c>
-      <c r="W423" t="n">
-        <v>0</v>
-      </c>
-      <c r="X423" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y423" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z423" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA423" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB423" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC423" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD423" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE423" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF423" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
-        <v>45176</v>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>Cameron McAinsh</t>
-        </is>
-      </c>
-      <c r="C424" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="D424" t="n">
-        <v>1</v>
-      </c>
-      <c r="E424" t="n">
-        <v>0</v>
-      </c>
-      <c r="F424" t="n">
-        <v>0</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0</v>
-      </c>
-      <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="n">
-        <v>0</v>
-      </c>
-      <c r="J424" t="n">
-        <v>2</v>
-      </c>
-      <c r="K424" t="n">
-        <v>1</v>
-      </c>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M424" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N424" t="n">
-        <v>7</v>
-      </c>
-      <c r="O424" t="n">
-        <v>3</v>
-      </c>
-      <c r="P424" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q424" t="inlineStr">
-        <is>
-          <t>Offensive</t>
-        </is>
-      </c>
-      <c r="R424" t="n">
-        <v>4</v>
-      </c>
-      <c r="S424" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="T424" t="n">
-        <v>5</v>
-      </c>
-      <c r="U424" t="n">
-        <v>1</v>
-      </c>
-      <c r="V424" t="n">
-        <v>0</v>
-      </c>
-      <c r="W424" t="n">
-        <v>0</v>
-      </c>
-      <c r="X424" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y424" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z424" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA424" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB424" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC424" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD424" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE424" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF424" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
-        <v>45176</v>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>Daniele Miccoli</t>
-        </is>
-      </c>
-      <c r="C425" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="D425" t="n">
-        <v>4</v>
-      </c>
-      <c r="E425" t="n">
-        <v>0</v>
-      </c>
-      <c r="F425" t="n">
-        <v>0</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0</v>
-      </c>
-      <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="n">
-        <v>0</v>
-      </c>
-      <c r="J425" t="n">
-        <v>2</v>
-      </c>
-      <c r="K425" t="n">
-        <v>1</v>
-      </c>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M425" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N425" t="n">
-        <v>7</v>
-      </c>
-      <c r="O425" t="n">
-        <v>3</v>
-      </c>
-      <c r="P425" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q425" t="inlineStr">
-        <is>
-          <t>Offensive</t>
-        </is>
-      </c>
-      <c r="R425" t="n">
-        <v>4</v>
-      </c>
-      <c r="S425" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="T425" t="n">
-        <v>5</v>
-      </c>
-      <c r="U425" t="n">
-        <v>4</v>
-      </c>
-      <c r="V425" t="n">
-        <v>0</v>
-      </c>
-      <c r="W425" t="n">
-        <v>0</v>
-      </c>
-      <c r="X425" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y425" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z425" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA425" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB425" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC425" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD425" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE425" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF425" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
-        <v>45176</v>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>Andrea Limonta</t>
-        </is>
-      </c>
-      <c r="C426" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="D426" t="n">
-        <v>0</v>
-      </c>
-      <c r="E426" t="n">
-        <v>0</v>
-      </c>
-      <c r="F426" t="n">
-        <v>0</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0</v>
-      </c>
-      <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="n">
-        <v>1</v>
-      </c>
-      <c r="J426" t="n">
-        <v>2</v>
-      </c>
-      <c r="K426" t="n">
-        <v>1</v>
-      </c>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M426" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N426" t="n">
-        <v>7</v>
-      </c>
-      <c r="O426" t="n">
-        <v>3</v>
-      </c>
-      <c r="P426" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q426" t="inlineStr">
-        <is>
-          <t>Defensive</t>
-        </is>
-      </c>
-      <c r="R426" t="n">
-        <v>4</v>
-      </c>
-      <c r="S426" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="T426" t="n">
-        <v>5</v>
-      </c>
-      <c r="U426" t="n">
-        <v>0</v>
-      </c>
-      <c r="V426" t="n">
-        <v>0</v>
-      </c>
-      <c r="W426" t="n">
-        <v>0</v>
-      </c>
-      <c r="X426" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y426" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z426" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AA426" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB426" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC426" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD426" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE426" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF426" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
-        <v>45176</v>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>Luca Stoppi</t>
-        </is>
-      </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="D427" t="n">
-        <v>1</v>
-      </c>
-      <c r="E427" t="n">
-        <v>0</v>
-      </c>
-      <c r="F427" t="n">
-        <v>0</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0</v>
-      </c>
-      <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="n">
-        <v>0</v>
-      </c>
-      <c r="J427" t="n">
-        <v>2</v>
-      </c>
-      <c r="K427" t="n">
-        <v>1</v>
-      </c>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M427" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N427" t="n">
-        <v>7</v>
-      </c>
-      <c r="O427" t="n">
-        <v>3</v>
-      </c>
-      <c r="P427" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q427" t="inlineStr">
-        <is>
-          <t>Defensive</t>
-        </is>
-      </c>
-      <c r="R427" t="n">
-        <v>4</v>
-      </c>
-      <c r="S427" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="T427" t="n">
-        <v>5</v>
-      </c>
-      <c r="U427" t="n">
-        <v>1</v>
-      </c>
-      <c r="V427" t="n">
-        <v>0</v>
-      </c>
-      <c r="W427" t="n">
-        <v>0</v>
-      </c>
-      <c r="X427" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y427" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z427" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA427" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB427" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC427" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD427" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE427" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF427" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
-        <v>45176</v>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>Mazzu</t>
-        </is>
-      </c>
-      <c r="C428" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="D428" t="n">
-        <v>0</v>
-      </c>
-      <c r="E428" t="n">
-        <v>0</v>
-      </c>
-      <c r="F428" t="n">
-        <v>1</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0</v>
-      </c>
-      <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="n">
-        <v>0</v>
-      </c>
-      <c r="J428" t="n">
-        <v>2</v>
-      </c>
-      <c r="K428" t="n">
-        <v>1</v>
-      </c>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M428" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N428" t="n">
-        <v>7</v>
-      </c>
-      <c r="O428" t="n">
-        <v>3</v>
-      </c>
-      <c r="P428" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q428" t="inlineStr">
-        <is>
-          <t>Offensive</t>
-        </is>
-      </c>
-      <c r="R428" t="n">
-        <v>4</v>
-      </c>
-      <c r="S428" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="T428" t="n">
-        <v>5</v>
-      </c>
-      <c r="U428" t="n">
-        <v>0</v>
-      </c>
-      <c r="V428" t="n">
-        <v>0</v>
-      </c>
-      <c r="W428" t="n">
-        <v>3</v>
-      </c>
-      <c r="X428" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y428" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z428" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA428" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB428" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC428" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD428" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE428" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF428" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
-        <v>45176</v>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>Damiano Barbanera</t>
-        </is>
-      </c>
-      <c r="C429" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="D429" t="n">
-        <v>0</v>
-      </c>
-      <c r="E429" t="n">
-        <v>1</v>
-      </c>
-      <c r="F429" t="n">
-        <v>0</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0</v>
-      </c>
-      <c r="H429" t="n">
-        <v>2</v>
-      </c>
-      <c r="I429" t="n">
-        <v>0</v>
-      </c>
-      <c r="J429" t="n">
-        <v>2</v>
-      </c>
-      <c r="K429" t="n">
-        <v>1</v>
-      </c>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M429" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N429" t="n">
-        <v>7</v>
-      </c>
-      <c r="O429" t="n">
-        <v>3</v>
-      </c>
-      <c r="P429" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q429" t="inlineStr">
-        <is>
-          <t>Offensive</t>
-        </is>
-      </c>
-      <c r="R429" t="n">
-        <v>4</v>
-      </c>
-      <c r="S429" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="T429" t="n">
-        <v>5</v>
-      </c>
-      <c r="U429" t="n">
-        <v>0</v>
-      </c>
-      <c r="V429" t="n">
-        <v>-2</v>
-      </c>
-      <c r="W429" t="n">
-        <v>0</v>
-      </c>
-      <c r="X429" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y429" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z429" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA429" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB429" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC429" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD429" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE429" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF429" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
-        <v>45176</v>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>Emilano (Dani)</t>
-        </is>
-      </c>
-      <c r="C430" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="D430" t="n">
-        <v>0</v>
-      </c>
-      <c r="E430" t="n">
-        <v>0</v>
-      </c>
-      <c r="F430" t="n">
-        <v>0</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0</v>
-      </c>
-      <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="n">
-        <v>0</v>
-      </c>
-      <c r="J430" t="n">
-        <v>2</v>
-      </c>
-      <c r="K430" t="n">
-        <v>1</v>
-      </c>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M430" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N430" t="n">
-        <v>7</v>
-      </c>
-      <c r="O430" t="n">
-        <v>3</v>
-      </c>
-      <c r="P430" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q430" t="inlineStr">
-        <is>
-          <t>Offensive</t>
-        </is>
-      </c>
-      <c r="R430" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S430" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="T430" t="n">
-        <v>5</v>
-      </c>
-      <c r="U430" t="n">
-        <v>0</v>
-      </c>
-      <c r="V430" t="n">
-        <v>0</v>
-      </c>
-      <c r="W430" t="n">
-        <v>0</v>
-      </c>
-      <c r="X430" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y430" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z430" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA430" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB430" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC430" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD430" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE430" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF430" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
-        <v>45176</v>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>Sergio</t>
-        </is>
-      </c>
-      <c r="C431" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="D431" t="n">
-        <v>2</v>
-      </c>
-      <c r="E431" t="n">
-        <v>0</v>
-      </c>
-      <c r="F431" t="n">
-        <v>0</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0</v>
-      </c>
-      <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="n">
-        <v>0</v>
-      </c>
-      <c r="J431" t="n">
-        <v>2</v>
-      </c>
-      <c r="K431" t="n">
-        <v>1</v>
-      </c>
-      <c r="L431" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M431" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N431" t="n">
-        <v>7</v>
-      </c>
-      <c r="O431" t="n">
-        <v>3</v>
-      </c>
-      <c r="P431" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q431" t="inlineStr">
-        <is>
-          <t>Goalkeeper</t>
-        </is>
-      </c>
-      <c r="R431" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S431" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="T431" t="n">
-        <v>5</v>
-      </c>
-      <c r="U431" t="n">
-        <v>2</v>
-      </c>
-      <c r="V431" t="n">
-        <v>0</v>
-      </c>
-      <c r="W431" t="n">
-        <v>0</v>
-      </c>
-      <c r="X431" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y431" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z431" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA431" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB431" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC431" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD431" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE431" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF431" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
-        <v>45176</v>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>Jacopo</t>
-        </is>
-      </c>
-      <c r="C432" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="D432" t="n">
-        <v>0</v>
-      </c>
-      <c r="E432" t="n">
-        <v>0</v>
-      </c>
-      <c r="F432" t="n">
-        <v>0</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0</v>
-      </c>
-      <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="n">
-        <v>0</v>
-      </c>
-      <c r="J432" t="n">
-        <v>2</v>
-      </c>
-      <c r="K432" t="n">
-        <v>1</v>
-      </c>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M432" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N432" t="n">
-        <v>7</v>
-      </c>
-      <c r="O432" t="n">
-        <v>3</v>
-      </c>
-      <c r="P432" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q432" t="inlineStr">
-        <is>
-          <t>Offensive</t>
-        </is>
-      </c>
-      <c r="R432" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S432" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="T432" t="n">
-        <v>5</v>
-      </c>
-      <c r="U432" t="n">
-        <v>0</v>
-      </c>
-      <c r="V432" t="n">
-        <v>0</v>
-      </c>
-      <c r="W432" t="n">
-        <v>0</v>
-      </c>
-      <c r="X432" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y432" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z432" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA432" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB432" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC432" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD432" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE432" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF432" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
-        <v>45176</v>
-      </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>Andrea Silverstri</t>
-        </is>
-      </c>
-      <c r="C433" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="D433" t="n">
-        <v>0</v>
-      </c>
-      <c r="E433" t="n">
-        <v>0</v>
-      </c>
-      <c r="F433" t="n">
-        <v>0</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0</v>
-      </c>
-      <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="n">
-        <v>0</v>
-      </c>
-      <c r="J433" t="n">
-        <v>2</v>
-      </c>
-      <c r="K433" t="n">
-        <v>1</v>
-      </c>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M433" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N433" t="n">
-        <v>7</v>
-      </c>
-      <c r="O433" t="n">
-        <v>3</v>
-      </c>
-      <c r="P433" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q433" t="inlineStr">
-        <is>
-          <t>Defensive</t>
-        </is>
-      </c>
-      <c r="R433" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S433" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="T433" t="n">
-        <v>5</v>
-      </c>
-      <c r="U433" t="n">
-        <v>0</v>
-      </c>
-      <c r="V433" t="n">
-        <v>0</v>
-      </c>
-      <c r="W433" t="n">
-        <v>0</v>
-      </c>
-      <c r="X433" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y433" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z433" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA433" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB433" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC433" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD433" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE433" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF433" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
-        <v>45176</v>
-      </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>Cerro</t>
-        </is>
-      </c>
-      <c r="C434" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="D434" t="n">
-        <v>1</v>
-      </c>
-      <c r="E434" t="n">
-        <v>0</v>
-      </c>
-      <c r="F434" t="n">
-        <v>0</v>
-      </c>
-      <c r="G434" t="n">
-        <v>1</v>
-      </c>
-      <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="n">
-        <v>0</v>
-      </c>
-      <c r="J434" t="n">
-        <v>2</v>
-      </c>
-      <c r="K434" t="n">
-        <v>1</v>
-      </c>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M434" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N434" t="n">
-        <v>7</v>
-      </c>
-      <c r="O434" t="n">
-        <v>3</v>
-      </c>
-      <c r="P434" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q434" t="inlineStr">
-        <is>
-          <t>Offensive</t>
-        </is>
-      </c>
-      <c r="R434" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S434" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="T434" t="n">
-        <v>5</v>
-      </c>
-      <c r="U434" t="n">
-        <v>1</v>
-      </c>
-      <c r="V434" t="n">
-        <v>0</v>
-      </c>
-      <c r="W434" t="n">
-        <v>0</v>
-      </c>
-      <c r="X434" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y434" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z434" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA434" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB434" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC434" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD434" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE434" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF434" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
-        <v>45176</v>
-      </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>Coco' (Stoppi)</t>
-        </is>
-      </c>
-      <c r="C435" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="D435" t="n">
-        <v>0</v>
-      </c>
-      <c r="E435" t="n">
-        <v>0</v>
-      </c>
-      <c r="F435" t="n">
-        <v>0</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0</v>
-      </c>
-      <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="n">
-        <v>0</v>
-      </c>
-      <c r="J435" t="n">
-        <v>2</v>
-      </c>
-      <c r="K435" t="n">
-        <v>1</v>
-      </c>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M435" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N435" t="n">
-        <v>7</v>
-      </c>
-      <c r="O435" t="n">
-        <v>3</v>
-      </c>
-      <c r="P435" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q435" t="inlineStr">
-        <is>
-          <t>Offensive</t>
-        </is>
-      </c>
-      <c r="R435" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S435" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="T435" t="n">
-        <v>5</v>
-      </c>
-      <c r="U435" t="n">
-        <v>0</v>
-      </c>
-      <c r="V435" t="n">
-        <v>0</v>
-      </c>
-      <c r="W435" t="n">
-        <v>0</v>
-      </c>
-      <c r="X435" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y435" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z435" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA435" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB435" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC435" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD435" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE435" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF435" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
-        <v>45176</v>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>Cri Diaz Lopez</t>
-        </is>
-      </c>
-      <c r="C436" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="D436" t="n">
-        <v>0</v>
-      </c>
-      <c r="E436" t="n">
-        <v>0</v>
-      </c>
-      <c r="F436" t="n">
-        <v>0</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0</v>
-      </c>
-      <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="n">
-        <v>0</v>
-      </c>
-      <c r="J436" t="n">
-        <v>2</v>
-      </c>
-      <c r="K436" t="n">
-        <v>1</v>
-      </c>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M436" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N436" t="n">
-        <v>7</v>
-      </c>
-      <c r="O436" t="n">
-        <v>3</v>
-      </c>
-      <c r="P436" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q436" t="inlineStr">
-        <is>
-          <t>Offensive</t>
-        </is>
-      </c>
-      <c r="R436" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S436" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="T436" t="n">
-        <v>5</v>
-      </c>
-      <c r="U436" t="n">
-        <v>0</v>
-      </c>
-      <c r="V436" t="n">
-        <v>0</v>
-      </c>
-      <c r="W436" t="n">
-        <v>0</v>
-      </c>
-      <c r="X436" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y436" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z436" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA436" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB436" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC436" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD436" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE436" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF436" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
-        <v>45183</v>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>Andrea Limonta</t>
-        </is>
-      </c>
-      <c r="C437" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="D437" t="n">
-        <v>0</v>
-      </c>
-      <c r="E437" t="n">
-        <v>0</v>
-      </c>
-      <c r="F437" t="n">
-        <v>1</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0</v>
-      </c>
-      <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="n">
-        <v>0</v>
-      </c>
-      <c r="J437" t="n">
-        <v>2</v>
-      </c>
-      <c r="K437" t="n">
-        <v>2</v>
-      </c>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M437" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N437" t="n">
-        <v>18</v>
-      </c>
-      <c r="O437" t="n">
-        <v>13</v>
-      </c>
-      <c r="P437" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q437" t="inlineStr">
-        <is>
-          <t>Defensive</t>
-        </is>
-      </c>
-      <c r="R437" t="n">
-        <v>-5</v>
-      </c>
-      <c r="S437" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="T437" t="n">
-        <v>5</v>
-      </c>
-      <c r="U437" t="n">
-        <v>0</v>
-      </c>
-      <c r="V437" t="n">
-        <v>0</v>
-      </c>
-      <c r="W437" t="n">
-        <v>3</v>
-      </c>
-      <c r="X437" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y437" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z437" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA437" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB437" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC437" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD437" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE437" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF437" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
-        <v>45183</v>
-      </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>Luca Stoppi</t>
-        </is>
-      </c>
-      <c r="C438" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="D438" t="n">
-        <v>2</v>
-      </c>
-      <c r="E438" t="n">
-        <v>1</v>
-      </c>
-      <c r="F438" t="n">
-        <v>0</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0</v>
-      </c>
-      <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="n">
-        <v>0</v>
-      </c>
-      <c r="J438" t="n">
-        <v>2</v>
-      </c>
-      <c r="K438" t="n">
-        <v>2</v>
-      </c>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M438" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N438" t="n">
-        <v>18</v>
-      </c>
-      <c r="O438" t="n">
-        <v>13</v>
-      </c>
-      <c r="P438" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q438" t="inlineStr">
-        <is>
-          <t>Defensive</t>
-        </is>
-      </c>
-      <c r="R438" t="n">
-        <v>-5</v>
-      </c>
-      <c r="S438" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="T438" t="n">
-        <v>5</v>
-      </c>
-      <c r="U438" t="n">
-        <v>2</v>
-      </c>
-      <c r="V438" t="n">
-        <v>-2</v>
-      </c>
-      <c r="W438" t="n">
-        <v>0</v>
-      </c>
-      <c r="X438" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y438" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z438" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA438" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB438" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC438" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD438" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE438" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF438" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
-        <v>45183</v>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>Mario Croce</t>
-        </is>
-      </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="D439" t="n">
-        <v>0</v>
-      </c>
-      <c r="E439" t="n">
-        <v>0</v>
-      </c>
-      <c r="F439" t="n">
-        <v>0</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0</v>
-      </c>
-      <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="n">
-        <v>0</v>
-      </c>
-      <c r="J439" t="n">
-        <v>2</v>
-      </c>
-      <c r="K439" t="n">
-        <v>2</v>
-      </c>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M439" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N439" t="n">
-        <v>18</v>
-      </c>
-      <c r="O439" t="n">
-        <v>13</v>
-      </c>
-      <c r="P439" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q439" t="inlineStr">
-        <is>
-          <t>Offensive</t>
-        </is>
-      </c>
-      <c r="R439" t="n">
-        <v>-5</v>
-      </c>
-      <c r="S439" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="T439" t="n">
-        <v>5</v>
-      </c>
-      <c r="U439" t="n">
-        <v>0</v>
-      </c>
-      <c r="V439" t="n">
-        <v>0</v>
-      </c>
-      <c r="W439" t="n">
-        <v>0</v>
-      </c>
-      <c r="X439" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y439" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z439" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA439" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB439" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC439" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD439" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE439" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF439" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
-        <v>45183</v>
-      </c>
-      <c r="B440" t="inlineStr">
-        <is>
-          <t>Gian Pareo</t>
-        </is>
-      </c>
-      <c r="C440" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="D440" t="n">
-        <v>3</v>
-      </c>
-      <c r="E440" t="n">
-        <v>0</v>
-      </c>
-      <c r="F440" t="n">
-        <v>0</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0</v>
-      </c>
-      <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="n">
-        <v>0</v>
-      </c>
-      <c r="J440" t="n">
-        <v>2</v>
-      </c>
-      <c r="K440" t="n">
-        <v>2</v>
-      </c>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M440" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N440" t="n">
-        <v>18</v>
-      </c>
-      <c r="O440" t="n">
-        <v>13</v>
-      </c>
-      <c r="P440" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q440" t="inlineStr">
-        <is>
-          <t>Defensive</t>
-        </is>
-      </c>
-      <c r="R440" t="n">
-        <v>-5</v>
-      </c>
-      <c r="S440" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="T440" t="n">
-        <v>5</v>
-      </c>
-      <c r="U440" t="n">
-        <v>3</v>
-      </c>
-      <c r="V440" t="n">
-        <v>0</v>
-      </c>
-      <c r="W440" t="n">
-        <v>0</v>
-      </c>
-      <c r="X440" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y440" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z440" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA440" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB440" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC440" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD440" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE440" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF440" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
-        <v>45183</v>
-      </c>
-      <c r="B441" t="inlineStr">
-        <is>
-          <t>Mazzu</t>
-        </is>
-      </c>
-      <c r="C441" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="D441" t="n">
-        <v>7</v>
-      </c>
-      <c r="E441" t="n">
-        <v>0</v>
-      </c>
-      <c r="F441" t="n">
-        <v>0</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0</v>
-      </c>
-      <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>0</v>
-      </c>
-      <c r="J441" t="n">
-        <v>2</v>
-      </c>
-      <c r="K441" t="n">
-        <v>2</v>
-      </c>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M441" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N441" t="n">
-        <v>18</v>
-      </c>
-      <c r="O441" t="n">
-        <v>13</v>
-      </c>
-      <c r="P441" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q441" t="inlineStr">
-        <is>
-          <t>Offensive</t>
-        </is>
-      </c>
-      <c r="R441" t="n">
-        <v>-5</v>
-      </c>
-      <c r="S441" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="T441" t="n">
-        <v>5</v>
-      </c>
-      <c r="U441" t="n">
-        <v>7</v>
-      </c>
-      <c r="V441" t="n">
-        <v>0</v>
-      </c>
-      <c r="W441" t="n">
-        <v>0</v>
-      </c>
-      <c r="X441" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y441" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z441" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA441" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB441" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC441" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD441" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE441" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF441" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
-        <v>45183</v>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>Rudy Vitiello</t>
-        </is>
-      </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="D442" t="n">
-        <v>1</v>
-      </c>
-      <c r="E442" t="n">
-        <v>0</v>
-      </c>
-      <c r="F442" t="n">
-        <v>0</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0</v>
-      </c>
-      <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="n">
-        <v>0</v>
-      </c>
-      <c r="J442" t="n">
-        <v>2</v>
-      </c>
-      <c r="K442" t="n">
-        <v>2</v>
-      </c>
-      <c r="L442" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M442" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N442" t="n">
-        <v>18</v>
-      </c>
-      <c r="O442" t="n">
-        <v>13</v>
-      </c>
-      <c r="P442" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q442" t="inlineStr">
-        <is>
-          <t>Offensive</t>
-        </is>
-      </c>
-      <c r="R442" t="n">
-        <v>-5</v>
-      </c>
-      <c r="S442" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="T442" t="n">
-        <v>5</v>
-      </c>
-      <c r="U442" t="n">
-        <v>1</v>
-      </c>
-      <c r="V442" t="n">
-        <v>0</v>
-      </c>
-      <c r="W442" t="n">
-        <v>0</v>
-      </c>
-      <c r="X442" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y442" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z442" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA442" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB442" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC442" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD442" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE442" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF442" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
-        <v>45183</v>
-      </c>
-      <c r="B443" t="inlineStr">
-        <is>
-          <t>Carlo Tempesta</t>
-        </is>
-      </c>
-      <c r="C443" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="D443" t="n">
-        <v>0</v>
-      </c>
-      <c r="E443" t="n">
-        <v>0</v>
-      </c>
-      <c r="F443" t="n">
-        <v>0</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0</v>
-      </c>
-      <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="n">
-        <v>1</v>
-      </c>
-      <c r="J443" t="n">
-        <v>2</v>
-      </c>
-      <c r="K443" t="n">
-        <v>2</v>
-      </c>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M443" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N443" t="n">
-        <v>18</v>
-      </c>
-      <c r="O443" t="n">
-        <v>13</v>
-      </c>
-      <c r="P443" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q443" t="inlineStr">
-        <is>
-          <t>Offensive</t>
-        </is>
-      </c>
-      <c r="R443" t="n">
-        <v>-5</v>
-      </c>
-      <c r="S443" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="T443" t="n">
-        <v>5</v>
-      </c>
-      <c r="U443" t="n">
-        <v>0</v>
-      </c>
-      <c r="V443" t="n">
-        <v>0</v>
-      </c>
-      <c r="W443" t="n">
-        <v>0</v>
-      </c>
-      <c r="X443" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y443" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z443" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AA443" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB443" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC443" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD443" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE443" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF443" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
-        <v>45183</v>
-      </c>
-      <c r="B444" t="inlineStr">
-        <is>
-          <t>Fabrizio Limonta</t>
-        </is>
-      </c>
-      <c r="C444" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="D444" t="n">
-        <v>0</v>
-      </c>
-      <c r="E444" t="n">
-        <v>0</v>
-      </c>
-      <c r="F444" t="n">
-        <v>0</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0</v>
-      </c>
-      <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="n">
-        <v>0</v>
-      </c>
-      <c r="J444" t="n">
-        <v>2</v>
-      </c>
-      <c r="K444" t="n">
-        <v>2</v>
-      </c>
-      <c r="L444" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M444" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N444" t="n">
-        <v>18</v>
-      </c>
-      <c r="O444" t="n">
-        <v>13</v>
-      </c>
-      <c r="P444" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q444" t="inlineStr">
-        <is>
-          <t>Defensive</t>
-        </is>
-      </c>
-      <c r="R444" t="n">
-        <v>5</v>
-      </c>
-      <c r="S444" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="T444" t="n">
-        <v>5</v>
-      </c>
-      <c r="U444" t="n">
-        <v>0</v>
-      </c>
-      <c r="V444" t="n">
-        <v>0</v>
-      </c>
-      <c r="W444" t="n">
-        <v>0</v>
-      </c>
-      <c r="X444" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y444" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z444" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA444" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB444" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC444" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD444" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE444" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF444" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
-        <v>45183</v>
-      </c>
-      <c r="B445" t="inlineStr">
-        <is>
-          <t>Francesco</t>
-        </is>
-      </c>
-      <c r="C445" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="D445" t="n">
-        <v>5</v>
-      </c>
-      <c r="E445" t="n">
-        <v>0</v>
-      </c>
-      <c r="F445" t="n">
-        <v>0</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0</v>
-      </c>
-      <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="n">
-        <v>0</v>
-      </c>
-      <c r="J445" t="n">
-        <v>2</v>
-      </c>
-      <c r="K445" t="n">
-        <v>2</v>
-      </c>
-      <c r="L445" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M445" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N445" t="n">
-        <v>18</v>
-      </c>
-      <c r="O445" t="n">
-        <v>13</v>
-      </c>
-      <c r="P445" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q445" t="inlineStr">
-        <is>
-          <t>Defensive</t>
-        </is>
-      </c>
-      <c r="R445" t="n">
-        <v>5</v>
-      </c>
-      <c r="S445" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="T445" t="n">
-        <v>5</v>
-      </c>
-      <c r="U445" t="n">
-        <v>5</v>
-      </c>
-      <c r="V445" t="n">
-        <v>0</v>
-      </c>
-      <c r="W445" t="n">
-        <v>0</v>
-      </c>
-      <c r="X445" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y445" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z445" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA445" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB445" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC445" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD445" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE445" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF445" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
-        <v>45183</v>
-      </c>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t>Giovanni Aiello</t>
-        </is>
-      </c>
-      <c r="C446" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="D446" t="n">
-        <v>1</v>
-      </c>
-      <c r="E446" t="n">
-        <v>0</v>
-      </c>
-      <c r="F446" t="n">
-        <v>0</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0</v>
-      </c>
-      <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="n">
-        <v>0</v>
-      </c>
-      <c r="J446" t="n">
-        <v>2</v>
-      </c>
-      <c r="K446" t="n">
-        <v>2</v>
-      </c>
-      <c r="L446" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M446" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N446" t="n">
-        <v>18</v>
-      </c>
-      <c r="O446" t="n">
-        <v>13</v>
-      </c>
-      <c r="P446" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q446" t="inlineStr">
-        <is>
-          <t>Offensive</t>
-        </is>
-      </c>
-      <c r="R446" t="n">
-        <v>5</v>
-      </c>
-      <c r="S446" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="T446" t="n">
-        <v>5</v>
-      </c>
-      <c r="U446" t="n">
-        <v>1</v>
-      </c>
-      <c r="V446" t="n">
-        <v>0</v>
-      </c>
-      <c r="W446" t="n">
-        <v>0</v>
-      </c>
-      <c r="X446" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y446" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z446" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA446" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB446" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC446" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD446" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE446" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF446" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
-        <v>45183</v>
-      </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t>Cri Diaz Lopez</t>
-        </is>
-      </c>
-      <c r="C447" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="D447" t="n">
-        <v>1</v>
-      </c>
-      <c r="E447" t="n">
-        <v>0</v>
-      </c>
-      <c r="F447" t="n">
-        <v>0</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0</v>
-      </c>
-      <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="n">
-        <v>0</v>
-      </c>
-      <c r="J447" t="n">
-        <v>2</v>
-      </c>
-      <c r="K447" t="n">
-        <v>2</v>
-      </c>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M447" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N447" t="n">
-        <v>18</v>
-      </c>
-      <c r="O447" t="n">
-        <v>13</v>
-      </c>
-      <c r="P447" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q447" t="inlineStr">
-        <is>
-          <t>Offensive</t>
-        </is>
-      </c>
-      <c r="R447" t="n">
-        <v>5</v>
-      </c>
-      <c r="S447" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="T447" t="n">
-        <v>5</v>
-      </c>
-      <c r="U447" t="n">
-        <v>1</v>
-      </c>
-      <c r="V447" t="n">
-        <v>0</v>
-      </c>
-      <c r="W447" t="n">
-        <v>0</v>
-      </c>
-      <c r="X447" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y447" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z447" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA447" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB447" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC447" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD447" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE447" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF447" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
-        <v>45183</v>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>Tito</t>
-        </is>
-      </c>
-      <c r="C448" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="D448" t="n">
-        <v>2</v>
-      </c>
-      <c r="E448" t="n">
-        <v>0</v>
-      </c>
-      <c r="F448" t="n">
-        <v>0</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0</v>
-      </c>
-      <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="n">
-        <v>0</v>
-      </c>
-      <c r="J448" t="n">
-        <v>2</v>
-      </c>
-      <c r="K448" t="n">
-        <v>2</v>
-      </c>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M448" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N448" t="n">
-        <v>18</v>
-      </c>
-      <c r="O448" t="n">
-        <v>13</v>
-      </c>
-      <c r="P448" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q448" t="inlineStr">
-        <is>
-          <t>Offensive</t>
-        </is>
-      </c>
-      <c r="R448" t="n">
-        <v>5</v>
-      </c>
-      <c r="S448" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="T448" t="n">
-        <v>5</v>
-      </c>
-      <c r="U448" t="n">
-        <v>2</v>
-      </c>
-      <c r="V448" t="n">
-        <v>0</v>
-      </c>
-      <c r="W448" t="n">
-        <v>0</v>
-      </c>
-      <c r="X448" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y448" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z448" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA448" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB448" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC448" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD448" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE448" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF448" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
-        <v>45183</v>
-      </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t>Damiano Barbanera</t>
-        </is>
-      </c>
-      <c r="C449" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="D449" t="n">
-        <v>6</v>
-      </c>
-      <c r="E449" t="n">
-        <v>0</v>
-      </c>
-      <c r="F449" t="n">
-        <v>0</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0</v>
-      </c>
-      <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="n">
-        <v>0</v>
-      </c>
-      <c r="J449" t="n">
-        <v>2</v>
-      </c>
-      <c r="K449" t="n">
-        <v>2</v>
-      </c>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="M449" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="N449" t="n">
-        <v>18</v>
-      </c>
-      <c r="O449" t="n">
-        <v>13</v>
-      </c>
-      <c r="P449" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q449" t="inlineStr">
-        <is>
-          <t>Offensive</t>
-        </is>
-      </c>
-      <c r="R449" t="n">
-        <v>5</v>
-      </c>
-      <c r="S449" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="T449" t="n">
-        <v>5</v>
-      </c>
-      <c r="U449" t="n">
-        <v>6</v>
-      </c>
-      <c r="V449" t="n">
-        <v>0</v>
-      </c>
-      <c r="W449" t="n">
-        <v>0</v>
-      </c>
-      <c r="X449" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y449" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z449" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA449" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB449" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC449" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD449" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE449" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF449" t="n">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/Milano/points_Milano.xlsx
+++ b/Excel/Milano/points_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF422"/>
+  <dimension ref="A1:AF436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46909,6 +46909,1546 @@
         <v>11</v>
       </c>
     </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Andrea Limonta</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>1</v>
+      </c>
+      <c r="E423" t="n">
+        <v>0</v>
+      </c>
+      <c r="F423" t="n">
+        <v>1</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0</v>
+      </c>
+      <c r="J423" t="n">
+        <v>2</v>
+      </c>
+      <c r="K423" t="n">
+        <v>1</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M423" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N423" t="n">
+        <v>10</v>
+      </c>
+      <c r="O423" t="n">
+        <v>6</v>
+      </c>
+      <c r="P423" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q423" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R423" t="n">
+        <v>4</v>
+      </c>
+      <c r="S423" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T423" t="n">
+        <v>5</v>
+      </c>
+      <c r="U423" t="n">
+        <v>1</v>
+      </c>
+      <c r="V423" t="n">
+        <v>0</v>
+      </c>
+      <c r="W423" t="n">
+        <v>3</v>
+      </c>
+      <c r="X423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z423" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA423" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB423" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC423" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD423" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE423" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF423" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Luca Stoppi</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>3</v>
+      </c>
+      <c r="E424" t="n">
+        <v>0</v>
+      </c>
+      <c r="F424" t="n">
+        <v>0</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0</v>
+      </c>
+      <c r="J424" t="n">
+        <v>2</v>
+      </c>
+      <c r="K424" t="n">
+        <v>1</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N424" t="n">
+        <v>10</v>
+      </c>
+      <c r="O424" t="n">
+        <v>6</v>
+      </c>
+      <c r="P424" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q424" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R424" t="n">
+        <v>4</v>
+      </c>
+      <c r="S424" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T424" t="n">
+        <v>5</v>
+      </c>
+      <c r="U424" t="n">
+        <v>3</v>
+      </c>
+      <c r="V424" t="n">
+        <v>0</v>
+      </c>
+      <c r="W424" t="n">
+        <v>0</v>
+      </c>
+      <c r="X424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z424" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA424" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB424" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC424" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD424" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE424" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF424" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Mazzu</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>1</v>
+      </c>
+      <c r="E425" t="n">
+        <v>0</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0</v>
+      </c>
+      <c r="J425" t="n">
+        <v>2</v>
+      </c>
+      <c r="K425" t="n">
+        <v>1</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N425" t="n">
+        <v>10</v>
+      </c>
+      <c r="O425" t="n">
+        <v>6</v>
+      </c>
+      <c r="P425" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R425" t="n">
+        <v>4</v>
+      </c>
+      <c r="S425" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T425" t="n">
+        <v>5</v>
+      </c>
+      <c r="U425" t="n">
+        <v>1</v>
+      </c>
+      <c r="V425" t="n">
+        <v>0</v>
+      </c>
+      <c r="W425" t="n">
+        <v>0</v>
+      </c>
+      <c r="X425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z425" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA425" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB425" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC425" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD425" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE425" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF425" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>1</v>
+      </c>
+      <c r="E426" t="n">
+        <v>0</v>
+      </c>
+      <c r="F426" t="n">
+        <v>0</v>
+      </c>
+      <c r="G426" t="n">
+        <v>1</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0</v>
+      </c>
+      <c r="J426" t="n">
+        <v>2</v>
+      </c>
+      <c r="K426" t="n">
+        <v>1</v>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M426" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N426" t="n">
+        <v>10</v>
+      </c>
+      <c r="O426" t="n">
+        <v>6</v>
+      </c>
+      <c r="P426" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R426" t="n">
+        <v>4</v>
+      </c>
+      <c r="S426" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T426" t="n">
+        <v>5</v>
+      </c>
+      <c r="U426" t="n">
+        <v>1</v>
+      </c>
+      <c r="V426" t="n">
+        <v>0</v>
+      </c>
+      <c r="W426" t="n">
+        <v>0</v>
+      </c>
+      <c r="X426" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z426" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA426" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB426" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC426" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD426" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE426" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF426" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Leo (Cava)</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>0</v>
+      </c>
+      <c r="E427" t="n">
+        <v>0</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0</v>
+      </c>
+      <c r="J427" t="n">
+        <v>2</v>
+      </c>
+      <c r="K427" t="n">
+        <v>1</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N427" t="n">
+        <v>10</v>
+      </c>
+      <c r="O427" t="n">
+        <v>6</v>
+      </c>
+      <c r="P427" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R427" t="n">
+        <v>4</v>
+      </c>
+      <c r="S427" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T427" t="n">
+        <v>5</v>
+      </c>
+      <c r="U427" t="n">
+        <v>0</v>
+      </c>
+      <c r="V427" t="n">
+        <v>0</v>
+      </c>
+      <c r="W427" t="n">
+        <v>0</v>
+      </c>
+      <c r="X427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z427" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA427" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB427" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC427" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD427" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE427" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF427" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Giovanni Aiello</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D428" t="n">
+        <v>2</v>
+      </c>
+      <c r="E428" t="n">
+        <v>0</v>
+      </c>
+      <c r="F428" t="n">
+        <v>0</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0</v>
+      </c>
+      <c r="J428" t="n">
+        <v>2</v>
+      </c>
+      <c r="K428" t="n">
+        <v>1</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M428" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N428" t="n">
+        <v>10</v>
+      </c>
+      <c r="O428" t="n">
+        <v>6</v>
+      </c>
+      <c r="P428" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q428" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R428" t="n">
+        <v>4</v>
+      </c>
+      <c r="S428" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T428" t="n">
+        <v>5</v>
+      </c>
+      <c r="U428" t="n">
+        <v>2</v>
+      </c>
+      <c r="V428" t="n">
+        <v>0</v>
+      </c>
+      <c r="W428" t="n">
+        <v>0</v>
+      </c>
+      <c r="X428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z428" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA428" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB428" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC428" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD428" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE428" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF428" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Maurizio</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>2</v>
+      </c>
+      <c r="E429" t="n">
+        <v>0</v>
+      </c>
+      <c r="F429" t="n">
+        <v>0</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
+      <c r="I429" t="n">
+        <v>0</v>
+      </c>
+      <c r="J429" t="n">
+        <v>2</v>
+      </c>
+      <c r="K429" t="n">
+        <v>1</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M429" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N429" t="n">
+        <v>10</v>
+      </c>
+      <c r="O429" t="n">
+        <v>6</v>
+      </c>
+      <c r="P429" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q429" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R429" t="n">
+        <v>4</v>
+      </c>
+      <c r="S429" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T429" t="n">
+        <v>5</v>
+      </c>
+      <c r="U429" t="n">
+        <v>2</v>
+      </c>
+      <c r="V429" t="n">
+        <v>0</v>
+      </c>
+      <c r="W429" t="n">
+        <v>0</v>
+      </c>
+      <c r="X429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z429" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA429" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB429" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC429" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD429" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE429" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF429" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Cameron McAinsh</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>2</v>
+      </c>
+      <c r="E430" t="n">
+        <v>0</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0</v>
+      </c>
+      <c r="J430" t="n">
+        <v>2</v>
+      </c>
+      <c r="K430" t="n">
+        <v>1</v>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M430" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N430" t="n">
+        <v>10</v>
+      </c>
+      <c r="O430" t="n">
+        <v>6</v>
+      </c>
+      <c r="P430" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q430" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R430" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S430" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T430" t="n">
+        <v>5</v>
+      </c>
+      <c r="U430" t="n">
+        <v>2</v>
+      </c>
+      <c r="V430" t="n">
+        <v>0</v>
+      </c>
+      <c r="W430" t="n">
+        <v>0</v>
+      </c>
+      <c r="X430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z430" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA430" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB430" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC430" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD430" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE430" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF430" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Sergio</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>0</v>
+      </c>
+      <c r="E431" t="n">
+        <v>0</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0</v>
+      </c>
+      <c r="J431" t="n">
+        <v>2</v>
+      </c>
+      <c r="K431" t="n">
+        <v>1</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M431" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N431" t="n">
+        <v>10</v>
+      </c>
+      <c r="O431" t="n">
+        <v>6</v>
+      </c>
+      <c r="P431" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q431" t="inlineStr">
+        <is>
+          <t>Goalkeeper</t>
+        </is>
+      </c>
+      <c r="R431" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S431" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T431" t="n">
+        <v>5</v>
+      </c>
+      <c r="U431" t="n">
+        <v>0</v>
+      </c>
+      <c r="V431" t="n">
+        <v>0</v>
+      </c>
+      <c r="W431" t="n">
+        <v>0</v>
+      </c>
+      <c r="X431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z431" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA431" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB431" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC431" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD431" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE431" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF431" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Francesco</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>0</v>
+      </c>
+      <c r="E432" t="n">
+        <v>0</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0</v>
+      </c>
+      <c r="J432" t="n">
+        <v>2</v>
+      </c>
+      <c r="K432" t="n">
+        <v>1</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M432" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N432" t="n">
+        <v>10</v>
+      </c>
+      <c r="O432" t="n">
+        <v>6</v>
+      </c>
+      <c r="P432" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R432" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S432" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T432" t="n">
+        <v>5</v>
+      </c>
+      <c r="U432" t="n">
+        <v>0</v>
+      </c>
+      <c r="V432" t="n">
+        <v>0</v>
+      </c>
+      <c r="W432" t="n">
+        <v>0</v>
+      </c>
+      <c r="X432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z432" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA432" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB432" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC432" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD432" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE432" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF432" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Fabrizio Limonta</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>0</v>
+      </c>
+      <c r="E433" t="n">
+        <v>0</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="n">
+        <v>0</v>
+      </c>
+      <c r="J433" t="n">
+        <v>2</v>
+      </c>
+      <c r="K433" t="n">
+        <v>1</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M433" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N433" t="n">
+        <v>10</v>
+      </c>
+      <c r="O433" t="n">
+        <v>6</v>
+      </c>
+      <c r="P433" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q433" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R433" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S433" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T433" t="n">
+        <v>5</v>
+      </c>
+      <c r="U433" t="n">
+        <v>0</v>
+      </c>
+      <c r="V433" t="n">
+        <v>0</v>
+      </c>
+      <c r="W433" t="n">
+        <v>0</v>
+      </c>
+      <c r="X433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z433" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA433" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB433" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC433" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD433" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE433" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF433" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Roby (Cri)</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>0</v>
+      </c>
+      <c r="E434" t="n">
+        <v>0</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0</v>
+      </c>
+      <c r="J434" t="n">
+        <v>2</v>
+      </c>
+      <c r="K434" t="n">
+        <v>1</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M434" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N434" t="n">
+        <v>10</v>
+      </c>
+      <c r="O434" t="n">
+        <v>6</v>
+      </c>
+      <c r="P434" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q434" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R434" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S434" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T434" t="n">
+        <v>5</v>
+      </c>
+      <c r="U434" t="n">
+        <v>0</v>
+      </c>
+      <c r="V434" t="n">
+        <v>0</v>
+      </c>
+      <c r="W434" t="n">
+        <v>0</v>
+      </c>
+      <c r="X434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z434" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA434" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB434" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC434" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD434" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE434" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF434" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Mario Croce</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>3</v>
+      </c>
+      <c r="E435" t="n">
+        <v>0</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0</v>
+      </c>
+      <c r="J435" t="n">
+        <v>2</v>
+      </c>
+      <c r="K435" t="n">
+        <v>1</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M435" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N435" t="n">
+        <v>10</v>
+      </c>
+      <c r="O435" t="n">
+        <v>6</v>
+      </c>
+      <c r="P435" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q435" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R435" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S435" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T435" t="n">
+        <v>5</v>
+      </c>
+      <c r="U435" t="n">
+        <v>3</v>
+      </c>
+      <c r="V435" t="n">
+        <v>0</v>
+      </c>
+      <c r="W435" t="n">
+        <v>0</v>
+      </c>
+      <c r="X435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z435" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA435" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB435" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC435" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD435" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE435" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF435" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Damiano Barbanera</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>1</v>
+      </c>
+      <c r="E436" t="n">
+        <v>0</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0</v>
+      </c>
+      <c r="J436" t="n">
+        <v>2</v>
+      </c>
+      <c r="K436" t="n">
+        <v>1</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M436" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N436" t="n">
+        <v>10</v>
+      </c>
+      <c r="O436" t="n">
+        <v>6</v>
+      </c>
+      <c r="P436" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q436" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R436" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S436" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T436" t="n">
+        <v>5</v>
+      </c>
+      <c r="U436" t="n">
+        <v>1</v>
+      </c>
+      <c r="V436" t="n">
+        <v>0</v>
+      </c>
+      <c r="W436" t="n">
+        <v>0</v>
+      </c>
+      <c r="X436" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y436" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z436" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA436" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB436" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC436" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD436" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE436" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF436" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/Milano/points_Milano.xlsx
+++ b/Excel/Milano/points_Milano.xlsx
@@ -47043,7 +47043,7 @@
         <v>0</v>
       </c>
       <c r="G424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H424" t="n">
         <v>0</v>
@@ -47102,7 +47102,7 @@
         <v>0</v>
       </c>
       <c r="X424" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y424" t="n">
         <v>0</v>
@@ -47126,7 +47126,7 @@
         <v>3</v>
       </c>
       <c r="AF424" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="425">
@@ -47263,7 +47263,7 @@
         <v>0</v>
       </c>
       <c r="G426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H426" t="n">
         <v>0</v>
@@ -47322,7 +47322,7 @@
         <v>0</v>
       </c>
       <c r="X426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y426" t="n">
         <v>0</v>
@@ -47346,7 +47346,7 @@
         <v>3</v>
       </c>
       <c r="AF426" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="427">

--- a/Excel/Milano/points_Milano.xlsx
+++ b/Excel/Milano/points_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF436"/>
+  <dimension ref="A1:AF450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48449,6 +48449,1546 @@
         <v>6</v>
       </c>
     </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Cameron McAinsh</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>2</v>
+      </c>
+      <c r="E437" t="n">
+        <v>0</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="n">
+        <v>0</v>
+      </c>
+      <c r="J437" t="n">
+        <v>2</v>
+      </c>
+      <c r="K437" t="n">
+        <v>2</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M437" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N437" t="n">
+        <v>10</v>
+      </c>
+      <c r="O437" t="n">
+        <v>9</v>
+      </c>
+      <c r="P437" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q437" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R437" t="n">
+        <v>1</v>
+      </c>
+      <c r="S437" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T437" t="n">
+        <v>5</v>
+      </c>
+      <c r="U437" t="n">
+        <v>2</v>
+      </c>
+      <c r="V437" t="n">
+        <v>0</v>
+      </c>
+      <c r="W437" t="n">
+        <v>0</v>
+      </c>
+      <c r="X437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z437" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA437" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB437" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC437" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD437" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE437" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF437" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Mario Croce</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>2</v>
+      </c>
+      <c r="E438" t="n">
+        <v>0</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0</v>
+      </c>
+      <c r="J438" t="n">
+        <v>2</v>
+      </c>
+      <c r="K438" t="n">
+        <v>2</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M438" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N438" t="n">
+        <v>10</v>
+      </c>
+      <c r="O438" t="n">
+        <v>9</v>
+      </c>
+      <c r="P438" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R438" t="n">
+        <v>1</v>
+      </c>
+      <c r="S438" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T438" t="n">
+        <v>5</v>
+      </c>
+      <c r="U438" t="n">
+        <v>2</v>
+      </c>
+      <c r="V438" t="n">
+        <v>0</v>
+      </c>
+      <c r="W438" t="n">
+        <v>0</v>
+      </c>
+      <c r="X438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z438" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA438" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB438" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC438" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD438" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE438" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF438" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Damiano Barbanera</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>1</v>
+      </c>
+      <c r="E439" t="n">
+        <v>0</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0</v>
+      </c>
+      <c r="J439" t="n">
+        <v>2</v>
+      </c>
+      <c r="K439" t="n">
+        <v>2</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M439" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N439" t="n">
+        <v>10</v>
+      </c>
+      <c r="O439" t="n">
+        <v>9</v>
+      </c>
+      <c r="P439" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q439" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R439" t="n">
+        <v>1</v>
+      </c>
+      <c r="S439" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T439" t="n">
+        <v>5</v>
+      </c>
+      <c r="U439" t="n">
+        <v>1</v>
+      </c>
+      <c r="V439" t="n">
+        <v>0</v>
+      </c>
+      <c r="W439" t="n">
+        <v>0</v>
+      </c>
+      <c r="X439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z439" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA439" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB439" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC439" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD439" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE439" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF439" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Sergio</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>0</v>
+      </c>
+      <c r="E440" t="n">
+        <v>0</v>
+      </c>
+      <c r="F440" t="n">
+        <v>1</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0</v>
+      </c>
+      <c r="J440" t="n">
+        <v>2</v>
+      </c>
+      <c r="K440" t="n">
+        <v>2</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M440" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N440" t="n">
+        <v>10</v>
+      </c>
+      <c r="O440" t="n">
+        <v>9</v>
+      </c>
+      <c r="P440" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q440" t="inlineStr">
+        <is>
+          <t>Goalkeeper</t>
+        </is>
+      </c>
+      <c r="R440" t="n">
+        <v>1</v>
+      </c>
+      <c r="S440" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T440" t="n">
+        <v>5</v>
+      </c>
+      <c r="U440" t="n">
+        <v>0</v>
+      </c>
+      <c r="V440" t="n">
+        <v>0</v>
+      </c>
+      <c r="W440" t="n">
+        <v>3</v>
+      </c>
+      <c r="X440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z440" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA440" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB440" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC440" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD440" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE440" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF440" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Fabrizio Limonta</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>1</v>
+      </c>
+      <c r="E441" t="n">
+        <v>0</v>
+      </c>
+      <c r="F441" t="n">
+        <v>0</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0</v>
+      </c>
+      <c r="J441" t="n">
+        <v>2</v>
+      </c>
+      <c r="K441" t="n">
+        <v>2</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M441" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N441" t="n">
+        <v>10</v>
+      </c>
+      <c r="O441" t="n">
+        <v>9</v>
+      </c>
+      <c r="P441" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q441" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R441" t="n">
+        <v>1</v>
+      </c>
+      <c r="S441" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T441" t="n">
+        <v>5</v>
+      </c>
+      <c r="U441" t="n">
+        <v>1</v>
+      </c>
+      <c r="V441" t="n">
+        <v>0</v>
+      </c>
+      <c r="W441" t="n">
+        <v>0</v>
+      </c>
+      <c r="X441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z441" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA441" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB441" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC441" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD441" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE441" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF441" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Cri Diaz Lopez</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>1</v>
+      </c>
+      <c r="E442" t="n">
+        <v>1</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0</v>
+      </c>
+      <c r="G442" t="n">
+        <v>1</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0</v>
+      </c>
+      <c r="J442" t="n">
+        <v>2</v>
+      </c>
+      <c r="K442" t="n">
+        <v>2</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M442" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N442" t="n">
+        <v>10</v>
+      </c>
+      <c r="O442" t="n">
+        <v>9</v>
+      </c>
+      <c r="P442" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q442" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R442" t="n">
+        <v>1</v>
+      </c>
+      <c r="S442" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T442" t="n">
+        <v>5</v>
+      </c>
+      <c r="U442" t="n">
+        <v>1</v>
+      </c>
+      <c r="V442" t="n">
+        <v>-2</v>
+      </c>
+      <c r="W442" t="n">
+        <v>0</v>
+      </c>
+      <c r="X442" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z442" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA442" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB442" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC442" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD442" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE442" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF442" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Roby (Cri)</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>2</v>
+      </c>
+      <c r="E443" t="n">
+        <v>0</v>
+      </c>
+      <c r="F443" t="n">
+        <v>0</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="n">
+        <v>0</v>
+      </c>
+      <c r="J443" t="n">
+        <v>2</v>
+      </c>
+      <c r="K443" t="n">
+        <v>2</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M443" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N443" t="n">
+        <v>10</v>
+      </c>
+      <c r="O443" t="n">
+        <v>9</v>
+      </c>
+      <c r="P443" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R443" t="n">
+        <v>1</v>
+      </c>
+      <c r="S443" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T443" t="n">
+        <v>5</v>
+      </c>
+      <c r="U443" t="n">
+        <v>2</v>
+      </c>
+      <c r="V443" t="n">
+        <v>0</v>
+      </c>
+      <c r="W443" t="n">
+        <v>0</v>
+      </c>
+      <c r="X443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z443" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA443" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB443" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC443" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD443" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE443" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF443" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Andrea Limonta</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>0</v>
+      </c>
+      <c r="E444" t="n">
+        <v>1</v>
+      </c>
+      <c r="F444" t="n">
+        <v>0</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0</v>
+      </c>
+      <c r="J444" t="n">
+        <v>2</v>
+      </c>
+      <c r="K444" t="n">
+        <v>2</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M444" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N444" t="n">
+        <v>10</v>
+      </c>
+      <c r="O444" t="n">
+        <v>9</v>
+      </c>
+      <c r="P444" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q444" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R444" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S444" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T444" t="n">
+        <v>5</v>
+      </c>
+      <c r="U444" t="n">
+        <v>0</v>
+      </c>
+      <c r="V444" t="n">
+        <v>-2</v>
+      </c>
+      <c r="W444" t="n">
+        <v>0</v>
+      </c>
+      <c r="X444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z444" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA444" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB444" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC444" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD444" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE444" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF444" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Robi (Stoppi)</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>1</v>
+      </c>
+      <c r="E445" t="n">
+        <v>0</v>
+      </c>
+      <c r="F445" t="n">
+        <v>0</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0</v>
+      </c>
+      <c r="J445" t="n">
+        <v>2</v>
+      </c>
+      <c r="K445" t="n">
+        <v>2</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M445" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N445" t="n">
+        <v>10</v>
+      </c>
+      <c r="O445" t="n">
+        <v>9</v>
+      </c>
+      <c r="P445" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q445" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R445" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S445" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T445" t="n">
+        <v>5</v>
+      </c>
+      <c r="U445" t="n">
+        <v>1</v>
+      </c>
+      <c r="V445" t="n">
+        <v>0</v>
+      </c>
+      <c r="W445" t="n">
+        <v>0</v>
+      </c>
+      <c r="X445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z445" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA445" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB445" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC445" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD445" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE445" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF445" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Jacopo</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>1</v>
+      </c>
+      <c r="E446" t="n">
+        <v>0</v>
+      </c>
+      <c r="F446" t="n">
+        <v>0</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0</v>
+      </c>
+      <c r="J446" t="n">
+        <v>2</v>
+      </c>
+      <c r="K446" t="n">
+        <v>2</v>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M446" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N446" t="n">
+        <v>10</v>
+      </c>
+      <c r="O446" t="n">
+        <v>9</v>
+      </c>
+      <c r="P446" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q446" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R446" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S446" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T446" t="n">
+        <v>5</v>
+      </c>
+      <c r="U446" t="n">
+        <v>1</v>
+      </c>
+      <c r="V446" t="n">
+        <v>0</v>
+      </c>
+      <c r="W446" t="n">
+        <v>0</v>
+      </c>
+      <c r="X446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z446" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA446" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB446" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC446" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD446" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE446" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF446" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Rocco</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>2</v>
+      </c>
+      <c r="E447" t="n">
+        <v>0</v>
+      </c>
+      <c r="F447" t="n">
+        <v>0</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0</v>
+      </c>
+      <c r="J447" t="n">
+        <v>2</v>
+      </c>
+      <c r="K447" t="n">
+        <v>2</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M447" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N447" t="n">
+        <v>10</v>
+      </c>
+      <c r="O447" t="n">
+        <v>9</v>
+      </c>
+      <c r="P447" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q447" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R447" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S447" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T447" t="n">
+        <v>5</v>
+      </c>
+      <c r="U447" t="n">
+        <v>2</v>
+      </c>
+      <c r="V447" t="n">
+        <v>0</v>
+      </c>
+      <c r="W447" t="n">
+        <v>0</v>
+      </c>
+      <c r="X447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z447" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA447" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB447" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC447" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD447" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE447" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF447" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Daniele Miccoli</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" t="n">
+        <v>0</v>
+      </c>
+      <c r="F448" t="n">
+        <v>0</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0</v>
+      </c>
+      <c r="J448" t="n">
+        <v>2</v>
+      </c>
+      <c r="K448" t="n">
+        <v>2</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M448" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N448" t="n">
+        <v>10</v>
+      </c>
+      <c r="O448" t="n">
+        <v>9</v>
+      </c>
+      <c r="P448" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q448" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R448" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S448" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T448" t="n">
+        <v>5</v>
+      </c>
+      <c r="U448" t="n">
+        <v>1</v>
+      </c>
+      <c r="V448" t="n">
+        <v>0</v>
+      </c>
+      <c r="W448" t="n">
+        <v>0</v>
+      </c>
+      <c r="X448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z448" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA448" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB448" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC448" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD448" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE448" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF448" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>1</v>
+      </c>
+      <c r="E449" t="n">
+        <v>0</v>
+      </c>
+      <c r="F449" t="n">
+        <v>0</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="n">
+        <v>0</v>
+      </c>
+      <c r="J449" t="n">
+        <v>2</v>
+      </c>
+      <c r="K449" t="n">
+        <v>2</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M449" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N449" t="n">
+        <v>10</v>
+      </c>
+      <c r="O449" t="n">
+        <v>9</v>
+      </c>
+      <c r="P449" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q449" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R449" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S449" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T449" t="n">
+        <v>5</v>
+      </c>
+      <c r="U449" t="n">
+        <v>1</v>
+      </c>
+      <c r="V449" t="n">
+        <v>0</v>
+      </c>
+      <c r="W449" t="n">
+        <v>0</v>
+      </c>
+      <c r="X449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z449" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA449" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB449" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC449" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD449" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE449" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF449" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Luca Stoppi</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>2</v>
+      </c>
+      <c r="E450" t="n">
+        <v>0</v>
+      </c>
+      <c r="F450" t="n">
+        <v>0</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0</v>
+      </c>
+      <c r="J450" t="n">
+        <v>2</v>
+      </c>
+      <c r="K450" t="n">
+        <v>2</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M450" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N450" t="n">
+        <v>10</v>
+      </c>
+      <c r="O450" t="n">
+        <v>9</v>
+      </c>
+      <c r="P450" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q450" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R450" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S450" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T450" t="n">
+        <v>5</v>
+      </c>
+      <c r="U450" t="n">
+        <v>2</v>
+      </c>
+      <c r="V450" t="n">
+        <v>0</v>
+      </c>
+      <c r="W450" t="n">
+        <v>0</v>
+      </c>
+      <c r="X450" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y450" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z450" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA450" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB450" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC450" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD450" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE450" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF450" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/Milano/points_Milano.xlsx
+++ b/Excel/Milano/points_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF450"/>
+  <dimension ref="A1:AF464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49989,6 +49989,1546 @@
         <v>7</v>
       </c>
     </row>
+    <row r="451">
+      <c r="A451" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Andrea Limonta</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>0</v>
+      </c>
+      <c r="E451" t="n">
+        <v>0</v>
+      </c>
+      <c r="F451" t="n">
+        <v>0</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="n">
+        <v>0</v>
+      </c>
+      <c r="J451" t="n">
+        <v>2</v>
+      </c>
+      <c r="K451" t="n">
+        <v>3</v>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M451" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N451" t="n">
+        <v>6</v>
+      </c>
+      <c r="O451" t="n">
+        <v>2</v>
+      </c>
+      <c r="P451" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q451" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R451" t="n">
+        <v>4</v>
+      </c>
+      <c r="S451" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T451" t="n">
+        <v>5</v>
+      </c>
+      <c r="U451" t="n">
+        <v>0</v>
+      </c>
+      <c r="V451" t="n">
+        <v>0</v>
+      </c>
+      <c r="W451" t="n">
+        <v>0</v>
+      </c>
+      <c r="X451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z451" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA451" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB451" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC451" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD451" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE451" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF451" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Luca Stoppi</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>0</v>
+      </c>
+      <c r="E452" t="n">
+        <v>0</v>
+      </c>
+      <c r="F452" t="n">
+        <v>0</v>
+      </c>
+      <c r="G452" t="n">
+        <v>1</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0</v>
+      </c>
+      <c r="J452" t="n">
+        <v>2</v>
+      </c>
+      <c r="K452" t="n">
+        <v>3</v>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N452" t="n">
+        <v>6</v>
+      </c>
+      <c r="O452" t="n">
+        <v>2</v>
+      </c>
+      <c r="P452" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q452" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R452" t="n">
+        <v>4</v>
+      </c>
+      <c r="S452" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T452" t="n">
+        <v>5</v>
+      </c>
+      <c r="U452" t="n">
+        <v>0</v>
+      </c>
+      <c r="V452" t="n">
+        <v>0</v>
+      </c>
+      <c r="W452" t="n">
+        <v>0</v>
+      </c>
+      <c r="X452" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z452" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA452" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB452" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC452" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD452" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE452" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF452" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>0</v>
+      </c>
+      <c r="E453" t="n">
+        <v>0</v>
+      </c>
+      <c r="F453" t="n">
+        <v>0</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="n">
+        <v>0</v>
+      </c>
+      <c r="J453" t="n">
+        <v>2</v>
+      </c>
+      <c r="K453" t="n">
+        <v>3</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N453" t="n">
+        <v>6</v>
+      </c>
+      <c r="O453" t="n">
+        <v>2</v>
+      </c>
+      <c r="P453" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q453" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R453" t="n">
+        <v>4</v>
+      </c>
+      <c r="S453" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T453" t="n">
+        <v>5</v>
+      </c>
+      <c r="U453" t="n">
+        <v>0</v>
+      </c>
+      <c r="V453" t="n">
+        <v>0</v>
+      </c>
+      <c r="W453" t="n">
+        <v>0</v>
+      </c>
+      <c r="X453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z453" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA453" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB453" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC453" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD453" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE453" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF453" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Mazzu</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>3</v>
+      </c>
+      <c r="E454" t="n">
+        <v>0</v>
+      </c>
+      <c r="F454" t="n">
+        <v>0</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0</v>
+      </c>
+      <c r="I454" t="n">
+        <v>0</v>
+      </c>
+      <c r="J454" t="n">
+        <v>2</v>
+      </c>
+      <c r="K454" t="n">
+        <v>3</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M454" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N454" t="n">
+        <v>6</v>
+      </c>
+      <c r="O454" t="n">
+        <v>2</v>
+      </c>
+      <c r="P454" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q454" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R454" t="n">
+        <v>4</v>
+      </c>
+      <c r="S454" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T454" t="n">
+        <v>5</v>
+      </c>
+      <c r="U454" t="n">
+        <v>3</v>
+      </c>
+      <c r="V454" t="n">
+        <v>0</v>
+      </c>
+      <c r="W454" t="n">
+        <v>0</v>
+      </c>
+      <c r="X454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z454" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA454" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB454" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC454" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD454" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE454" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF454" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Sergio</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>3</v>
+      </c>
+      <c r="E455" t="n">
+        <v>0</v>
+      </c>
+      <c r="F455" t="n">
+        <v>0</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0</v>
+      </c>
+      <c r="J455" t="n">
+        <v>2</v>
+      </c>
+      <c r="K455" t="n">
+        <v>3</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M455" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N455" t="n">
+        <v>6</v>
+      </c>
+      <c r="O455" t="n">
+        <v>2</v>
+      </c>
+      <c r="P455" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q455" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R455" t="n">
+        <v>4</v>
+      </c>
+      <c r="S455" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T455" t="n">
+        <v>5</v>
+      </c>
+      <c r="U455" t="n">
+        <v>3</v>
+      </c>
+      <c r="V455" t="n">
+        <v>0</v>
+      </c>
+      <c r="W455" t="n">
+        <v>0</v>
+      </c>
+      <c r="X455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z455" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA455" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB455" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC455" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD455" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE455" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF455" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Jacopo</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>0</v>
+      </c>
+      <c r="E456" t="n">
+        <v>0</v>
+      </c>
+      <c r="F456" t="n">
+        <v>0</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0</v>
+      </c>
+      <c r="J456" t="n">
+        <v>2</v>
+      </c>
+      <c r="K456" t="n">
+        <v>3</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N456" t="n">
+        <v>6</v>
+      </c>
+      <c r="O456" t="n">
+        <v>2</v>
+      </c>
+      <c r="P456" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q456" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R456" t="n">
+        <v>4</v>
+      </c>
+      <c r="S456" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T456" t="n">
+        <v>5</v>
+      </c>
+      <c r="U456" t="n">
+        <v>0</v>
+      </c>
+      <c r="V456" t="n">
+        <v>0</v>
+      </c>
+      <c r="W456" t="n">
+        <v>0</v>
+      </c>
+      <c r="X456" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y456" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z456" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA456" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB456" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC456" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD456" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE456" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF456" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Robi (Stoppi)</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>0</v>
+      </c>
+      <c r="E457" t="n">
+        <v>0</v>
+      </c>
+      <c r="F457" t="n">
+        <v>0</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0</v>
+      </c>
+      <c r="J457" t="n">
+        <v>2</v>
+      </c>
+      <c r="K457" t="n">
+        <v>3</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N457" t="n">
+        <v>6</v>
+      </c>
+      <c r="O457" t="n">
+        <v>2</v>
+      </c>
+      <c r="P457" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q457" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R457" t="n">
+        <v>4</v>
+      </c>
+      <c r="S457" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T457" t="n">
+        <v>5</v>
+      </c>
+      <c r="U457" t="n">
+        <v>0</v>
+      </c>
+      <c r="V457" t="n">
+        <v>0</v>
+      </c>
+      <c r="W457" t="n">
+        <v>0</v>
+      </c>
+      <c r="X457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z457" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA457" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB457" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC457" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD457" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE457" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF457" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Andrea Silverstri</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>0</v>
+      </c>
+      <c r="E458" t="n">
+        <v>0</v>
+      </c>
+      <c r="F458" t="n">
+        <v>0</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0</v>
+      </c>
+      <c r="J458" t="n">
+        <v>2</v>
+      </c>
+      <c r="K458" t="n">
+        <v>3</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N458" t="n">
+        <v>6</v>
+      </c>
+      <c r="O458" t="n">
+        <v>2</v>
+      </c>
+      <c r="P458" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q458" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R458" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S458" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T458" t="n">
+        <v>5</v>
+      </c>
+      <c r="U458" t="n">
+        <v>0</v>
+      </c>
+      <c r="V458" t="n">
+        <v>0</v>
+      </c>
+      <c r="W458" t="n">
+        <v>0</v>
+      </c>
+      <c r="X458" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y458" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z458" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA458" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB458" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC458" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD458" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE458" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF458" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Francesco</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>0</v>
+      </c>
+      <c r="E459" t="n">
+        <v>0</v>
+      </c>
+      <c r="F459" t="n">
+        <v>0</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="n">
+        <v>0</v>
+      </c>
+      <c r="J459" t="n">
+        <v>2</v>
+      </c>
+      <c r="K459" t="n">
+        <v>3</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M459" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N459" t="n">
+        <v>6</v>
+      </c>
+      <c r="O459" t="n">
+        <v>2</v>
+      </c>
+      <c r="P459" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q459" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R459" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S459" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T459" t="n">
+        <v>5</v>
+      </c>
+      <c r="U459" t="n">
+        <v>0</v>
+      </c>
+      <c r="V459" t="n">
+        <v>0</v>
+      </c>
+      <c r="W459" t="n">
+        <v>0</v>
+      </c>
+      <c r="X459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z459" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA459" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB459" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC459" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD459" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE459" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF459" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Cri Diaz Lopez</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>0</v>
+      </c>
+      <c r="E460" t="n">
+        <v>0</v>
+      </c>
+      <c r="F460" t="n">
+        <v>0</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0</v>
+      </c>
+      <c r="J460" t="n">
+        <v>2</v>
+      </c>
+      <c r="K460" t="n">
+        <v>3</v>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N460" t="n">
+        <v>6</v>
+      </c>
+      <c r="O460" t="n">
+        <v>2</v>
+      </c>
+      <c r="P460" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q460" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R460" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S460" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T460" t="n">
+        <v>5</v>
+      </c>
+      <c r="U460" t="n">
+        <v>0</v>
+      </c>
+      <c r="V460" t="n">
+        <v>0</v>
+      </c>
+      <c r="W460" t="n">
+        <v>0</v>
+      </c>
+      <c r="X460" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y460" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z460" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA460" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB460" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC460" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD460" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE460" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF460" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Roby (Cri)</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>0</v>
+      </c>
+      <c r="E461" t="n">
+        <v>0</v>
+      </c>
+      <c r="F461" t="n">
+        <v>0</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" t="n">
+        <v>0</v>
+      </c>
+      <c r="J461" t="n">
+        <v>2</v>
+      </c>
+      <c r="K461" t="n">
+        <v>3</v>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N461" t="n">
+        <v>6</v>
+      </c>
+      <c r="O461" t="n">
+        <v>2</v>
+      </c>
+      <c r="P461" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q461" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R461" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S461" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T461" t="n">
+        <v>5</v>
+      </c>
+      <c r="U461" t="n">
+        <v>0</v>
+      </c>
+      <c r="V461" t="n">
+        <v>0</v>
+      </c>
+      <c r="W461" t="n">
+        <v>0</v>
+      </c>
+      <c r="X461" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y461" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z461" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA461" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB461" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC461" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD461" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE461" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF461" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Fabrizio Limonta</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>0</v>
+      </c>
+      <c r="E462" t="n">
+        <v>0</v>
+      </c>
+      <c r="F462" t="n">
+        <v>0</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0</v>
+      </c>
+      <c r="I462" t="n">
+        <v>0</v>
+      </c>
+      <c r="J462" t="n">
+        <v>2</v>
+      </c>
+      <c r="K462" t="n">
+        <v>3</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N462" t="n">
+        <v>6</v>
+      </c>
+      <c r="O462" t="n">
+        <v>2</v>
+      </c>
+      <c r="P462" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q462" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R462" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S462" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T462" t="n">
+        <v>5</v>
+      </c>
+      <c r="U462" t="n">
+        <v>0</v>
+      </c>
+      <c r="V462" t="n">
+        <v>0</v>
+      </c>
+      <c r="W462" t="n">
+        <v>0</v>
+      </c>
+      <c r="X462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z462" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA462" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB462" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC462" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD462" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE462" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF462" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Fabio (Mario)</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>0</v>
+      </c>
+      <c r="E463" t="n">
+        <v>0</v>
+      </c>
+      <c r="F463" t="n">
+        <v>0</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0</v>
+      </c>
+      <c r="J463" t="n">
+        <v>2</v>
+      </c>
+      <c r="K463" t="n">
+        <v>3</v>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N463" t="n">
+        <v>6</v>
+      </c>
+      <c r="O463" t="n">
+        <v>2</v>
+      </c>
+      <c r="P463" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q463" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R463" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S463" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T463" t="n">
+        <v>5</v>
+      </c>
+      <c r="U463" t="n">
+        <v>0</v>
+      </c>
+      <c r="V463" t="n">
+        <v>0</v>
+      </c>
+      <c r="W463" t="n">
+        <v>0</v>
+      </c>
+      <c r="X463" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y463" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z463" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA463" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB463" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC463" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD463" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE463" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF463" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Mario Croce</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>2</v>
+      </c>
+      <c r="E464" t="n">
+        <v>0</v>
+      </c>
+      <c r="F464" t="n">
+        <v>0</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0</v>
+      </c>
+      <c r="H464" t="n">
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>0</v>
+      </c>
+      <c r="J464" t="n">
+        <v>2</v>
+      </c>
+      <c r="K464" t="n">
+        <v>3</v>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N464" t="n">
+        <v>6</v>
+      </c>
+      <c r="O464" t="n">
+        <v>2</v>
+      </c>
+      <c r="P464" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q464" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R464" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S464" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T464" t="n">
+        <v>5</v>
+      </c>
+      <c r="U464" t="n">
+        <v>2</v>
+      </c>
+      <c r="V464" t="n">
+        <v>0</v>
+      </c>
+      <c r="W464" t="n">
+        <v>0</v>
+      </c>
+      <c r="X464" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y464" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z464" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA464" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB464" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC464" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD464" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE464" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF464" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/Milano/points_Milano.xlsx
+++ b/Excel/Milano/points_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF464"/>
+  <dimension ref="A1:AF478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51529,6 +51529,1546 @@
         <v>11</v>
       </c>
     </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Luca Stoppi</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>0</v>
+      </c>
+      <c r="E465" t="n">
+        <v>0</v>
+      </c>
+      <c r="F465" t="n">
+        <v>0</v>
+      </c>
+      <c r="G465" t="n">
+        <v>0</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I465" t="n">
+        <v>0</v>
+      </c>
+      <c r="J465" t="n">
+        <v>2</v>
+      </c>
+      <c r="K465" t="n">
+        <v>4</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N465" t="n">
+        <v>3</v>
+      </c>
+      <c r="O465" t="n">
+        <v>12</v>
+      </c>
+      <c r="P465" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q465" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R465" t="n">
+        <v>-9</v>
+      </c>
+      <c r="S465" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T465" t="n">
+        <v>5</v>
+      </c>
+      <c r="U465" t="n">
+        <v>0</v>
+      </c>
+      <c r="V465" t="n">
+        <v>0</v>
+      </c>
+      <c r="W465" t="n">
+        <v>0</v>
+      </c>
+      <c r="X465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z465" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA465" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB465" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC465" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD465" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE465" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF465" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Federico Paolucci</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>0</v>
+      </c>
+      <c r="E466" t="n">
+        <v>0</v>
+      </c>
+      <c r="F466" t="n">
+        <v>0</v>
+      </c>
+      <c r="G466" t="n">
+        <v>0</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0</v>
+      </c>
+      <c r="I466" t="n">
+        <v>0</v>
+      </c>
+      <c r="J466" t="n">
+        <v>2</v>
+      </c>
+      <c r="K466" t="n">
+        <v>4</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N466" t="n">
+        <v>3</v>
+      </c>
+      <c r="O466" t="n">
+        <v>12</v>
+      </c>
+      <c r="P466" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q466" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R466" t="n">
+        <v>-9</v>
+      </c>
+      <c r="S466" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T466" t="n">
+        <v>5</v>
+      </c>
+      <c r="U466" t="n">
+        <v>0</v>
+      </c>
+      <c r="V466" t="n">
+        <v>0</v>
+      </c>
+      <c r="W466" t="n">
+        <v>0</v>
+      </c>
+      <c r="X466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z466" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA466" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB466" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC466" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD466" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE466" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF466" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>1</v>
+      </c>
+      <c r="E467" t="n">
+        <v>0</v>
+      </c>
+      <c r="F467" t="n">
+        <v>0</v>
+      </c>
+      <c r="G467" t="n">
+        <v>0</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0</v>
+      </c>
+      <c r="I467" t="n">
+        <v>0</v>
+      </c>
+      <c r="J467" t="n">
+        <v>2</v>
+      </c>
+      <c r="K467" t="n">
+        <v>4</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N467" t="n">
+        <v>3</v>
+      </c>
+      <c r="O467" t="n">
+        <v>12</v>
+      </c>
+      <c r="P467" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q467" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R467" t="n">
+        <v>-9</v>
+      </c>
+      <c r="S467" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T467" t="n">
+        <v>5</v>
+      </c>
+      <c r="U467" t="n">
+        <v>1</v>
+      </c>
+      <c r="V467" t="n">
+        <v>0</v>
+      </c>
+      <c r="W467" t="n">
+        <v>0</v>
+      </c>
+      <c r="X467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z467" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA467" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB467" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC467" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD467" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE467" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF467" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Robi (Stoppi)</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>0</v>
+      </c>
+      <c r="E468" t="n">
+        <v>0</v>
+      </c>
+      <c r="F468" t="n">
+        <v>0</v>
+      </c>
+      <c r="G468" t="n">
+        <v>0</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0</v>
+      </c>
+      <c r="I468" t="n">
+        <v>0</v>
+      </c>
+      <c r="J468" t="n">
+        <v>2</v>
+      </c>
+      <c r="K468" t="n">
+        <v>4</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N468" t="n">
+        <v>3</v>
+      </c>
+      <c r="O468" t="n">
+        <v>12</v>
+      </c>
+      <c r="P468" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q468" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R468" t="n">
+        <v>-9</v>
+      </c>
+      <c r="S468" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T468" t="n">
+        <v>5</v>
+      </c>
+      <c r="U468" t="n">
+        <v>0</v>
+      </c>
+      <c r="V468" t="n">
+        <v>0</v>
+      </c>
+      <c r="W468" t="n">
+        <v>0</v>
+      </c>
+      <c r="X468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z468" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA468" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB468" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC468" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD468" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE468" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF468" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Daniele Miccoli</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>0</v>
+      </c>
+      <c r="E469" t="n">
+        <v>0</v>
+      </c>
+      <c r="F469" t="n">
+        <v>0</v>
+      </c>
+      <c r="G469" t="n">
+        <v>0</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0</v>
+      </c>
+      <c r="J469" t="n">
+        <v>2</v>
+      </c>
+      <c r="K469" t="n">
+        <v>4</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N469" t="n">
+        <v>3</v>
+      </c>
+      <c r="O469" t="n">
+        <v>12</v>
+      </c>
+      <c r="P469" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q469" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R469" t="n">
+        <v>-9</v>
+      </c>
+      <c r="S469" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T469" t="n">
+        <v>5</v>
+      </c>
+      <c r="U469" t="n">
+        <v>0</v>
+      </c>
+      <c r="V469" t="n">
+        <v>0</v>
+      </c>
+      <c r="W469" t="n">
+        <v>0</v>
+      </c>
+      <c r="X469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z469" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA469" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB469" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC469" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD469" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE469" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF469" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Maurizio</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>1</v>
+      </c>
+      <c r="E470" t="n">
+        <v>0</v>
+      </c>
+      <c r="F470" t="n">
+        <v>1</v>
+      </c>
+      <c r="G470" t="n">
+        <v>0</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I470" t="n">
+        <v>0</v>
+      </c>
+      <c r="J470" t="n">
+        <v>2</v>
+      </c>
+      <c r="K470" t="n">
+        <v>4</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N470" t="n">
+        <v>3</v>
+      </c>
+      <c r="O470" t="n">
+        <v>12</v>
+      </c>
+      <c r="P470" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q470" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R470" t="n">
+        <v>-9</v>
+      </c>
+      <c r="S470" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T470" t="n">
+        <v>5</v>
+      </c>
+      <c r="U470" t="n">
+        <v>1</v>
+      </c>
+      <c r="V470" t="n">
+        <v>0</v>
+      </c>
+      <c r="W470" t="n">
+        <v>3</v>
+      </c>
+      <c r="X470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z470" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA470" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB470" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC470" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD470" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE470" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF470" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Jacopo</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>1</v>
+      </c>
+      <c r="E471" t="n">
+        <v>0</v>
+      </c>
+      <c r="F471" t="n">
+        <v>0</v>
+      </c>
+      <c r="G471" t="n">
+        <v>0</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0</v>
+      </c>
+      <c r="I471" t="n">
+        <v>0</v>
+      </c>
+      <c r="J471" t="n">
+        <v>2</v>
+      </c>
+      <c r="K471" t="n">
+        <v>4</v>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N471" t="n">
+        <v>3</v>
+      </c>
+      <c r="O471" t="n">
+        <v>12</v>
+      </c>
+      <c r="P471" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q471" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R471" t="n">
+        <v>-9</v>
+      </c>
+      <c r="S471" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T471" t="n">
+        <v>5</v>
+      </c>
+      <c r="U471" t="n">
+        <v>1</v>
+      </c>
+      <c r="V471" t="n">
+        <v>0</v>
+      </c>
+      <c r="W471" t="n">
+        <v>0</v>
+      </c>
+      <c r="X471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z471" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA471" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB471" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC471" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD471" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE471" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF471" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Cameron McAinsh</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>1</v>
+      </c>
+      <c r="E472" t="n">
+        <v>0</v>
+      </c>
+      <c r="F472" t="n">
+        <v>0</v>
+      </c>
+      <c r="G472" t="n">
+        <v>0</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0</v>
+      </c>
+      <c r="J472" t="n">
+        <v>2</v>
+      </c>
+      <c r="K472" t="n">
+        <v>4</v>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N472" t="n">
+        <v>3</v>
+      </c>
+      <c r="O472" t="n">
+        <v>12</v>
+      </c>
+      <c r="P472" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q472" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R472" t="n">
+        <v>9</v>
+      </c>
+      <c r="S472" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T472" t="n">
+        <v>5</v>
+      </c>
+      <c r="U472" t="n">
+        <v>1</v>
+      </c>
+      <c r="V472" t="n">
+        <v>0</v>
+      </c>
+      <c r="W472" t="n">
+        <v>0</v>
+      </c>
+      <c r="X472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z472" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA472" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB472" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC472" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD472" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE472" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF472" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Andrea Limonta</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>0</v>
+      </c>
+      <c r="E473" t="n">
+        <v>0</v>
+      </c>
+      <c r="F473" t="n">
+        <v>0</v>
+      </c>
+      <c r="G473" t="n">
+        <v>0</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="n">
+        <v>0</v>
+      </c>
+      <c r="J473" t="n">
+        <v>2</v>
+      </c>
+      <c r="K473" t="n">
+        <v>4</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N473" t="n">
+        <v>3</v>
+      </c>
+      <c r="O473" t="n">
+        <v>12</v>
+      </c>
+      <c r="P473" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q473" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R473" t="n">
+        <v>9</v>
+      </c>
+      <c r="S473" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T473" t="n">
+        <v>5</v>
+      </c>
+      <c r="U473" t="n">
+        <v>0</v>
+      </c>
+      <c r="V473" t="n">
+        <v>0</v>
+      </c>
+      <c r="W473" t="n">
+        <v>0</v>
+      </c>
+      <c r="X473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z473" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA473" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB473" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC473" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD473" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE473" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF473" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Sergio</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>3</v>
+      </c>
+      <c r="E474" t="n">
+        <v>0</v>
+      </c>
+      <c r="F474" t="n">
+        <v>0</v>
+      </c>
+      <c r="G474" t="n">
+        <v>0</v>
+      </c>
+      <c r="H474" t="n">
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>0</v>
+      </c>
+      <c r="J474" t="n">
+        <v>2</v>
+      </c>
+      <c r="K474" t="n">
+        <v>4</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N474" t="n">
+        <v>3</v>
+      </c>
+      <c r="O474" t="n">
+        <v>12</v>
+      </c>
+      <c r="P474" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q474" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R474" t="n">
+        <v>9</v>
+      </c>
+      <c r="S474" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T474" t="n">
+        <v>5</v>
+      </c>
+      <c r="U474" t="n">
+        <v>3</v>
+      </c>
+      <c r="V474" t="n">
+        <v>0</v>
+      </c>
+      <c r="W474" t="n">
+        <v>0</v>
+      </c>
+      <c r="X474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y474" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z474" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA474" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB474" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC474" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD474" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE474" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF474" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Wissam Rahal</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>1</v>
+      </c>
+      <c r="E475" t="n">
+        <v>0</v>
+      </c>
+      <c r="F475" t="n">
+        <v>0</v>
+      </c>
+      <c r="G475" t="n">
+        <v>0</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" t="n">
+        <v>0</v>
+      </c>
+      <c r="J475" t="n">
+        <v>2</v>
+      </c>
+      <c r="K475" t="n">
+        <v>4</v>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N475" t="n">
+        <v>3</v>
+      </c>
+      <c r="O475" t="n">
+        <v>12</v>
+      </c>
+      <c r="P475" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q475" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R475" t="n">
+        <v>9</v>
+      </c>
+      <c r="S475" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T475" t="n">
+        <v>5</v>
+      </c>
+      <c r="U475" t="n">
+        <v>1</v>
+      </c>
+      <c r="V475" t="n">
+        <v>0</v>
+      </c>
+      <c r="W475" t="n">
+        <v>0</v>
+      </c>
+      <c r="X475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z475" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA475" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB475" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC475" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD475" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE475" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF475" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Damiano Barbanera</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>2</v>
+      </c>
+      <c r="E476" t="n">
+        <v>0</v>
+      </c>
+      <c r="F476" t="n">
+        <v>0</v>
+      </c>
+      <c r="G476" t="n">
+        <v>0</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0</v>
+      </c>
+      <c r="J476" t="n">
+        <v>2</v>
+      </c>
+      <c r="K476" t="n">
+        <v>4</v>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N476" t="n">
+        <v>3</v>
+      </c>
+      <c r="O476" t="n">
+        <v>12</v>
+      </c>
+      <c r="P476" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q476" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R476" t="n">
+        <v>9</v>
+      </c>
+      <c r="S476" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T476" t="n">
+        <v>5</v>
+      </c>
+      <c r="U476" t="n">
+        <v>2</v>
+      </c>
+      <c r="V476" t="n">
+        <v>0</v>
+      </c>
+      <c r="W476" t="n">
+        <v>0</v>
+      </c>
+      <c r="X476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z476" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA476" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB476" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC476" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD476" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE476" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF476" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Tito</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>3</v>
+      </c>
+      <c r="E477" t="n">
+        <v>0</v>
+      </c>
+      <c r="F477" t="n">
+        <v>0</v>
+      </c>
+      <c r="G477" t="n">
+        <v>0</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0</v>
+      </c>
+      <c r="I477" t="n">
+        <v>0</v>
+      </c>
+      <c r="J477" t="n">
+        <v>2</v>
+      </c>
+      <c r="K477" t="n">
+        <v>4</v>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N477" t="n">
+        <v>3</v>
+      </c>
+      <c r="O477" t="n">
+        <v>12</v>
+      </c>
+      <c r="P477" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q477" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R477" t="n">
+        <v>9</v>
+      </c>
+      <c r="S477" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T477" t="n">
+        <v>5</v>
+      </c>
+      <c r="U477" t="n">
+        <v>3</v>
+      </c>
+      <c r="V477" t="n">
+        <v>0</v>
+      </c>
+      <c r="W477" t="n">
+        <v>0</v>
+      </c>
+      <c r="X477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z477" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA477" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB477" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC477" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD477" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE477" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF477" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Stefano (Cava)</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>2</v>
+      </c>
+      <c r="E478" t="n">
+        <v>0</v>
+      </c>
+      <c r="F478" t="n">
+        <v>0</v>
+      </c>
+      <c r="G478" t="n">
+        <v>1</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0</v>
+      </c>
+      <c r="J478" t="n">
+        <v>2</v>
+      </c>
+      <c r="K478" t="n">
+        <v>4</v>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M478" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N478" t="n">
+        <v>3</v>
+      </c>
+      <c r="O478" t="n">
+        <v>12</v>
+      </c>
+      <c r="P478" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q478" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R478" t="n">
+        <v>9</v>
+      </c>
+      <c r="S478" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T478" t="n">
+        <v>5</v>
+      </c>
+      <c r="U478" t="n">
+        <v>2</v>
+      </c>
+      <c r="V478" t="n">
+        <v>0</v>
+      </c>
+      <c r="W478" t="n">
+        <v>0</v>
+      </c>
+      <c r="X478" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z478" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA478" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB478" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC478" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD478" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE478" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF478" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/Milano/points_Milano.xlsx
+++ b/Excel/Milano/points_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF478"/>
+  <dimension ref="A1:AF494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53069,6 +53069,1766 @@
         <v>20</v>
       </c>
     </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Andrea Limonta</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>0</v>
+      </c>
+      <c r="E479" t="n">
+        <v>0</v>
+      </c>
+      <c r="F479" t="n">
+        <v>0</v>
+      </c>
+      <c r="G479" t="n">
+        <v>0</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0</v>
+      </c>
+      <c r="I479" t="n">
+        <v>0</v>
+      </c>
+      <c r="J479" t="n">
+        <v>2</v>
+      </c>
+      <c r="K479" t="n">
+        <v>5</v>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M479" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N479" t="n">
+        <v>8</v>
+      </c>
+      <c r="O479" t="n">
+        <v>6</v>
+      </c>
+      <c r="P479" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q479" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R479" t="n">
+        <v>2</v>
+      </c>
+      <c r="S479" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T479" t="n">
+        <v>5</v>
+      </c>
+      <c r="U479" t="n">
+        <v>0</v>
+      </c>
+      <c r="V479" t="n">
+        <v>0</v>
+      </c>
+      <c r="W479" t="n">
+        <v>0</v>
+      </c>
+      <c r="X479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z479" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA479" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB479" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC479" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD479" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE479" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF479" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Luca Stoppi</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>0</v>
+      </c>
+      <c r="E480" t="n">
+        <v>0</v>
+      </c>
+      <c r="F480" t="n">
+        <v>0</v>
+      </c>
+      <c r="G480" t="n">
+        <v>0</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0</v>
+      </c>
+      <c r="J480" t="n">
+        <v>2</v>
+      </c>
+      <c r="K480" t="n">
+        <v>5</v>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M480" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N480" t="n">
+        <v>8</v>
+      </c>
+      <c r="O480" t="n">
+        <v>6</v>
+      </c>
+      <c r="P480" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q480" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R480" t="n">
+        <v>2</v>
+      </c>
+      <c r="S480" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T480" t="n">
+        <v>5</v>
+      </c>
+      <c r="U480" t="n">
+        <v>0</v>
+      </c>
+      <c r="V480" t="n">
+        <v>0</v>
+      </c>
+      <c r="W480" t="n">
+        <v>0</v>
+      </c>
+      <c r="X480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z480" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA480" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB480" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC480" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD480" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE480" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF480" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Federico Paolucci</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>0</v>
+      </c>
+      <c r="E481" t="n">
+        <v>0</v>
+      </c>
+      <c r="F481" t="n">
+        <v>1</v>
+      </c>
+      <c r="G481" t="n">
+        <v>0</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0</v>
+      </c>
+      <c r="I481" t="n">
+        <v>0</v>
+      </c>
+      <c r="J481" t="n">
+        <v>2</v>
+      </c>
+      <c r="K481" t="n">
+        <v>5</v>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N481" t="n">
+        <v>8</v>
+      </c>
+      <c r="O481" t="n">
+        <v>6</v>
+      </c>
+      <c r="P481" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q481" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R481" t="n">
+        <v>2</v>
+      </c>
+      <c r="S481" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T481" t="n">
+        <v>5</v>
+      </c>
+      <c r="U481" t="n">
+        <v>0</v>
+      </c>
+      <c r="V481" t="n">
+        <v>0</v>
+      </c>
+      <c r="W481" t="n">
+        <v>3</v>
+      </c>
+      <c r="X481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z481" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA481" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB481" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC481" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD481" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE481" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF481" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Leo (Cava)</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>0</v>
+      </c>
+      <c r="E482" t="n">
+        <v>0</v>
+      </c>
+      <c r="F482" t="n">
+        <v>0</v>
+      </c>
+      <c r="G482" t="n">
+        <v>0</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0</v>
+      </c>
+      <c r="J482" t="n">
+        <v>2</v>
+      </c>
+      <c r="K482" t="n">
+        <v>5</v>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N482" t="n">
+        <v>8</v>
+      </c>
+      <c r="O482" t="n">
+        <v>6</v>
+      </c>
+      <c r="P482" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q482" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R482" t="n">
+        <v>2</v>
+      </c>
+      <c r="S482" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T482" t="n">
+        <v>5</v>
+      </c>
+      <c r="U482" t="n">
+        <v>0</v>
+      </c>
+      <c r="V482" t="n">
+        <v>0</v>
+      </c>
+      <c r="W482" t="n">
+        <v>0</v>
+      </c>
+      <c r="X482" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y482" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z482" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA482" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB482" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC482" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD482" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE482" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF482" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Sergio</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>2</v>
+      </c>
+      <c r="E483" t="n">
+        <v>0</v>
+      </c>
+      <c r="F483" t="n">
+        <v>0</v>
+      </c>
+      <c r="G483" t="n">
+        <v>0</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0</v>
+      </c>
+      <c r="I483" t="n">
+        <v>0</v>
+      </c>
+      <c r="J483" t="n">
+        <v>2</v>
+      </c>
+      <c r="K483" t="n">
+        <v>5</v>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N483" t="n">
+        <v>8</v>
+      </c>
+      <c r="O483" t="n">
+        <v>6</v>
+      </c>
+      <c r="P483" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q483" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R483" t="n">
+        <v>2</v>
+      </c>
+      <c r="S483" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T483" t="n">
+        <v>5</v>
+      </c>
+      <c r="U483" t="n">
+        <v>2</v>
+      </c>
+      <c r="V483" t="n">
+        <v>0</v>
+      </c>
+      <c r="W483" t="n">
+        <v>0</v>
+      </c>
+      <c r="X483" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y483" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z483" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA483" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB483" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC483" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD483" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE483" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF483" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Maurizio</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>1</v>
+      </c>
+      <c r="E484" t="n">
+        <v>0</v>
+      </c>
+      <c r="F484" t="n">
+        <v>0</v>
+      </c>
+      <c r="G484" t="n">
+        <v>0</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0</v>
+      </c>
+      <c r="I484" t="n">
+        <v>0</v>
+      </c>
+      <c r="J484" t="n">
+        <v>2</v>
+      </c>
+      <c r="K484" t="n">
+        <v>5</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N484" t="n">
+        <v>8</v>
+      </c>
+      <c r="O484" t="n">
+        <v>6</v>
+      </c>
+      <c r="P484" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q484" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R484" t="n">
+        <v>2</v>
+      </c>
+      <c r="S484" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T484" t="n">
+        <v>5</v>
+      </c>
+      <c r="U484" t="n">
+        <v>1</v>
+      </c>
+      <c r="V484" t="n">
+        <v>0</v>
+      </c>
+      <c r="W484" t="n">
+        <v>0</v>
+      </c>
+      <c r="X484" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y484" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z484" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA484" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB484" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC484" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD484" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE484" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF484" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Jacopo</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D485" t="n">
+        <v>4</v>
+      </c>
+      <c r="E485" t="n">
+        <v>0</v>
+      </c>
+      <c r="F485" t="n">
+        <v>0</v>
+      </c>
+      <c r="G485" t="n">
+        <v>0</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0</v>
+      </c>
+      <c r="I485" t="n">
+        <v>0</v>
+      </c>
+      <c r="J485" t="n">
+        <v>2</v>
+      </c>
+      <c r="K485" t="n">
+        <v>5</v>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N485" t="n">
+        <v>8</v>
+      </c>
+      <c r="O485" t="n">
+        <v>6</v>
+      </c>
+      <c r="P485" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q485" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R485" t="n">
+        <v>2</v>
+      </c>
+      <c r="S485" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T485" t="n">
+        <v>5</v>
+      </c>
+      <c r="U485" t="n">
+        <v>4</v>
+      </c>
+      <c r="V485" t="n">
+        <v>0</v>
+      </c>
+      <c r="W485" t="n">
+        <v>0</v>
+      </c>
+      <c r="X485" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y485" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z485" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA485" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB485" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC485" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD485" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE485" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF485" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Tito</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>1</v>
+      </c>
+      <c r="E486" t="n">
+        <v>0</v>
+      </c>
+      <c r="F486" t="n">
+        <v>0</v>
+      </c>
+      <c r="G486" t="n">
+        <v>1</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0</v>
+      </c>
+      <c r="J486" t="n">
+        <v>2</v>
+      </c>
+      <c r="K486" t="n">
+        <v>5</v>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N486" t="n">
+        <v>8</v>
+      </c>
+      <c r="O486" t="n">
+        <v>6</v>
+      </c>
+      <c r="P486" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q486" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R486" t="n">
+        <v>2</v>
+      </c>
+      <c r="S486" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T486" t="n">
+        <v>5</v>
+      </c>
+      <c r="U486" t="n">
+        <v>1</v>
+      </c>
+      <c r="V486" t="n">
+        <v>0</v>
+      </c>
+      <c r="W486" t="n">
+        <v>0</v>
+      </c>
+      <c r="X486" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y486" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z486" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA486" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB486" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC486" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD486" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE486" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF486" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Cri Diaz Lopez</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>0</v>
+      </c>
+      <c r="E487" t="n">
+        <v>0</v>
+      </c>
+      <c r="F487" t="n">
+        <v>0</v>
+      </c>
+      <c r="G487" t="n">
+        <v>0</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0</v>
+      </c>
+      <c r="I487" t="n">
+        <v>0</v>
+      </c>
+      <c r="J487" t="n">
+        <v>2</v>
+      </c>
+      <c r="K487" t="n">
+        <v>5</v>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M487" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N487" t="n">
+        <v>8</v>
+      </c>
+      <c r="O487" t="n">
+        <v>6</v>
+      </c>
+      <c r="P487" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q487" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R487" t="n">
+        <v>-2</v>
+      </c>
+      <c r="S487" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T487" t="n">
+        <v>5</v>
+      </c>
+      <c r="U487" t="n">
+        <v>0</v>
+      </c>
+      <c r="V487" t="n">
+        <v>0</v>
+      </c>
+      <c r="W487" t="n">
+        <v>0</v>
+      </c>
+      <c r="X487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z487" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA487" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB487" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC487" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD487" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE487" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF487" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Stefano (Cava)</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D488" t="n">
+        <v>2</v>
+      </c>
+      <c r="E488" t="n">
+        <v>0</v>
+      </c>
+      <c r="F488" t="n">
+        <v>0</v>
+      </c>
+      <c r="G488" t="n">
+        <v>0</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0</v>
+      </c>
+      <c r="I488" t="n">
+        <v>0</v>
+      </c>
+      <c r="J488" t="n">
+        <v>2</v>
+      </c>
+      <c r="K488" t="n">
+        <v>5</v>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M488" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N488" t="n">
+        <v>8</v>
+      </c>
+      <c r="O488" t="n">
+        <v>6</v>
+      </c>
+      <c r="P488" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q488" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R488" t="n">
+        <v>-2</v>
+      </c>
+      <c r="S488" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T488" t="n">
+        <v>5</v>
+      </c>
+      <c r="U488" t="n">
+        <v>2</v>
+      </c>
+      <c r="V488" t="n">
+        <v>0</v>
+      </c>
+      <c r="W488" t="n">
+        <v>0</v>
+      </c>
+      <c r="X488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z488" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA488" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB488" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC488" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD488" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE488" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF488" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Roby (Cri)</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D489" t="n">
+        <v>0</v>
+      </c>
+      <c r="E489" t="n">
+        <v>0</v>
+      </c>
+      <c r="F489" t="n">
+        <v>0</v>
+      </c>
+      <c r="G489" t="n">
+        <v>0</v>
+      </c>
+      <c r="H489" t="n">
+        <v>0</v>
+      </c>
+      <c r="I489" t="n">
+        <v>0</v>
+      </c>
+      <c r="J489" t="n">
+        <v>2</v>
+      </c>
+      <c r="K489" t="n">
+        <v>5</v>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M489" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N489" t="n">
+        <v>8</v>
+      </c>
+      <c r="O489" t="n">
+        <v>6</v>
+      </c>
+      <c r="P489" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q489" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R489" t="n">
+        <v>-2</v>
+      </c>
+      <c r="S489" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T489" t="n">
+        <v>5</v>
+      </c>
+      <c r="U489" t="n">
+        <v>0</v>
+      </c>
+      <c r="V489" t="n">
+        <v>0</v>
+      </c>
+      <c r="W489" t="n">
+        <v>0</v>
+      </c>
+      <c r="X489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z489" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA489" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB489" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC489" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD489" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE489" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF489" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Rocco</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>1</v>
+      </c>
+      <c r="E490" t="n">
+        <v>0</v>
+      </c>
+      <c r="F490" t="n">
+        <v>0</v>
+      </c>
+      <c r="G490" t="n">
+        <v>0</v>
+      </c>
+      <c r="H490" t="n">
+        <v>0</v>
+      </c>
+      <c r="I490" t="n">
+        <v>0</v>
+      </c>
+      <c r="J490" t="n">
+        <v>2</v>
+      </c>
+      <c r="K490" t="n">
+        <v>5</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N490" t="n">
+        <v>8</v>
+      </c>
+      <c r="O490" t="n">
+        <v>6</v>
+      </c>
+      <c r="P490" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q490" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R490" t="n">
+        <v>-2</v>
+      </c>
+      <c r="S490" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T490" t="n">
+        <v>5</v>
+      </c>
+      <c r="U490" t="n">
+        <v>1</v>
+      </c>
+      <c r="V490" t="n">
+        <v>0</v>
+      </c>
+      <c r="W490" t="n">
+        <v>0</v>
+      </c>
+      <c r="X490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z490" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA490" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB490" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC490" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD490" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE490" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF490" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Cameron McAinsh</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>0</v>
+      </c>
+      <c r="E491" t="n">
+        <v>0</v>
+      </c>
+      <c r="F491" t="n">
+        <v>0</v>
+      </c>
+      <c r="G491" t="n">
+        <v>0</v>
+      </c>
+      <c r="H491" t="n">
+        <v>0</v>
+      </c>
+      <c r="I491" t="n">
+        <v>0</v>
+      </c>
+      <c r="J491" t="n">
+        <v>2</v>
+      </c>
+      <c r="K491" t="n">
+        <v>5</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M491" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N491" t="n">
+        <v>8</v>
+      </c>
+      <c r="O491" t="n">
+        <v>6</v>
+      </c>
+      <c r="P491" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q491" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R491" t="n">
+        <v>-2</v>
+      </c>
+      <c r="S491" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T491" t="n">
+        <v>5</v>
+      </c>
+      <c r="U491" t="n">
+        <v>0</v>
+      </c>
+      <c r="V491" t="n">
+        <v>0</v>
+      </c>
+      <c r="W491" t="n">
+        <v>0</v>
+      </c>
+      <c r="X491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z491" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA491" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB491" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC491" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD491" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE491" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF491" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Andrea Silverstri</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>0</v>
+      </c>
+      <c r="E492" t="n">
+        <v>0</v>
+      </c>
+      <c r="F492" t="n">
+        <v>0</v>
+      </c>
+      <c r="G492" t="n">
+        <v>0</v>
+      </c>
+      <c r="H492" t="n">
+        <v>0</v>
+      </c>
+      <c r="I492" t="n">
+        <v>0</v>
+      </c>
+      <c r="J492" t="n">
+        <v>2</v>
+      </c>
+      <c r="K492" t="n">
+        <v>5</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M492" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N492" t="n">
+        <v>8</v>
+      </c>
+      <c r="O492" t="n">
+        <v>6</v>
+      </c>
+      <c r="P492" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q492" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R492" t="n">
+        <v>-2</v>
+      </c>
+      <c r="S492" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T492" t="n">
+        <v>5</v>
+      </c>
+      <c r="U492" t="n">
+        <v>0</v>
+      </c>
+      <c r="V492" t="n">
+        <v>0</v>
+      </c>
+      <c r="W492" t="n">
+        <v>0</v>
+      </c>
+      <c r="X492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z492" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA492" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB492" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC492" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD492" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE492" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF492" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Fabrizio Limonta</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D493" t="n">
+        <v>1</v>
+      </c>
+      <c r="E493" t="n">
+        <v>0</v>
+      </c>
+      <c r="F493" t="n">
+        <v>0</v>
+      </c>
+      <c r="G493" t="n">
+        <v>0</v>
+      </c>
+      <c r="H493" t="n">
+        <v>0</v>
+      </c>
+      <c r="I493" t="n">
+        <v>0</v>
+      </c>
+      <c r="J493" t="n">
+        <v>2</v>
+      </c>
+      <c r="K493" t="n">
+        <v>5</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M493" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N493" t="n">
+        <v>8</v>
+      </c>
+      <c r="O493" t="n">
+        <v>6</v>
+      </c>
+      <c r="P493" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q493" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R493" t="n">
+        <v>-2</v>
+      </c>
+      <c r="S493" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T493" t="n">
+        <v>5</v>
+      </c>
+      <c r="U493" t="n">
+        <v>1</v>
+      </c>
+      <c r="V493" t="n">
+        <v>0</v>
+      </c>
+      <c r="W493" t="n">
+        <v>0</v>
+      </c>
+      <c r="X493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z493" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA493" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB493" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC493" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD493" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE493" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF493" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Damiano Barbanera</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>2</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0</v>
+      </c>
+      <c r="F494" t="n">
+        <v>0</v>
+      </c>
+      <c r="G494" t="n">
+        <v>0</v>
+      </c>
+      <c r="H494" t="n">
+        <v>0</v>
+      </c>
+      <c r="I494" t="n">
+        <v>0</v>
+      </c>
+      <c r="J494" t="n">
+        <v>2</v>
+      </c>
+      <c r="K494" t="n">
+        <v>5</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="N494" t="n">
+        <v>8</v>
+      </c>
+      <c r="O494" t="n">
+        <v>6</v>
+      </c>
+      <c r="P494" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q494" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R494" t="n">
+        <v>-2</v>
+      </c>
+      <c r="S494" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T494" t="n">
+        <v>5</v>
+      </c>
+      <c r="U494" t="n">
+        <v>2</v>
+      </c>
+      <c r="V494" t="n">
+        <v>0</v>
+      </c>
+      <c r="W494" t="n">
+        <v>0</v>
+      </c>
+      <c r="X494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z494" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA494" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB494" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC494" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD494" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE494" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF494" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/Milano/points_Milano.xlsx
+++ b/Excel/Milano/points_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF494"/>
+  <dimension ref="A1:AF510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54829,6 +54829,1766 @@
         <v>7</v>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Cri Diaz Lopez</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D495" t="n">
+        <v>0</v>
+      </c>
+      <c r="E495" t="n">
+        <v>0</v>
+      </c>
+      <c r="F495" t="n">
+        <v>0</v>
+      </c>
+      <c r="G495" t="n">
+        <v>0</v>
+      </c>
+      <c r="H495" t="n">
+        <v>0</v>
+      </c>
+      <c r="I495" t="n">
+        <v>0</v>
+      </c>
+      <c r="J495" t="n">
+        <v>2</v>
+      </c>
+      <c r="K495" t="n">
+        <v>6</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M495" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N495" t="n">
+        <v>8</v>
+      </c>
+      <c r="O495" t="n">
+        <v>9</v>
+      </c>
+      <c r="P495" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q495" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R495" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S495" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T495" t="n">
+        <v>5</v>
+      </c>
+      <c r="U495" t="n">
+        <v>0</v>
+      </c>
+      <c r="V495" t="n">
+        <v>0</v>
+      </c>
+      <c r="W495" t="n">
+        <v>0</v>
+      </c>
+      <c r="X495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z495" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA495" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB495" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC495" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD495" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE495" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF495" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Cameron McAinsh</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>1</v>
+      </c>
+      <c r="E496" t="n">
+        <v>0</v>
+      </c>
+      <c r="F496" t="n">
+        <v>0</v>
+      </c>
+      <c r="G496" t="n">
+        <v>0</v>
+      </c>
+      <c r="H496" t="n">
+        <v>0</v>
+      </c>
+      <c r="I496" t="n">
+        <v>0</v>
+      </c>
+      <c r="J496" t="n">
+        <v>2</v>
+      </c>
+      <c r="K496" t="n">
+        <v>6</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N496" t="n">
+        <v>8</v>
+      </c>
+      <c r="O496" t="n">
+        <v>9</v>
+      </c>
+      <c r="P496" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q496" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R496" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S496" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T496" t="n">
+        <v>5</v>
+      </c>
+      <c r="U496" t="n">
+        <v>1</v>
+      </c>
+      <c r="V496" t="n">
+        <v>0</v>
+      </c>
+      <c r="W496" t="n">
+        <v>0</v>
+      </c>
+      <c r="X496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z496" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA496" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB496" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC496" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD496" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE496" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF496" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Tito</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D497" t="n">
+        <v>1</v>
+      </c>
+      <c r="E497" t="n">
+        <v>0</v>
+      </c>
+      <c r="F497" t="n">
+        <v>1</v>
+      </c>
+      <c r="G497" t="n">
+        <v>0</v>
+      </c>
+      <c r="H497" t="n">
+        <v>0</v>
+      </c>
+      <c r="I497" t="n">
+        <v>0</v>
+      </c>
+      <c r="J497" t="n">
+        <v>2</v>
+      </c>
+      <c r="K497" t="n">
+        <v>6</v>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M497" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N497" t="n">
+        <v>8</v>
+      </c>
+      <c r="O497" t="n">
+        <v>9</v>
+      </c>
+      <c r="P497" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q497" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R497" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S497" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T497" t="n">
+        <v>5</v>
+      </c>
+      <c r="U497" t="n">
+        <v>1</v>
+      </c>
+      <c r="V497" t="n">
+        <v>0</v>
+      </c>
+      <c r="W497" t="n">
+        <v>3</v>
+      </c>
+      <c r="X497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z497" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA497" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB497" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC497" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD497" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE497" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF497" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Mario Croce</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D498" t="n">
+        <v>2</v>
+      </c>
+      <c r="E498" t="n">
+        <v>0</v>
+      </c>
+      <c r="F498" t="n">
+        <v>0</v>
+      </c>
+      <c r="G498" t="n">
+        <v>0</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0</v>
+      </c>
+      <c r="J498" t="n">
+        <v>2</v>
+      </c>
+      <c r="K498" t="n">
+        <v>6</v>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N498" t="n">
+        <v>8</v>
+      </c>
+      <c r="O498" t="n">
+        <v>9</v>
+      </c>
+      <c r="P498" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q498" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R498" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S498" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T498" t="n">
+        <v>5</v>
+      </c>
+      <c r="U498" t="n">
+        <v>2</v>
+      </c>
+      <c r="V498" t="n">
+        <v>0</v>
+      </c>
+      <c r="W498" t="n">
+        <v>0</v>
+      </c>
+      <c r="X498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z498" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA498" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB498" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC498" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD498" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE498" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF498" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Claudio</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D499" t="n">
+        <v>0</v>
+      </c>
+      <c r="E499" t="n">
+        <v>0</v>
+      </c>
+      <c r="F499" t="n">
+        <v>0</v>
+      </c>
+      <c r="G499" t="n">
+        <v>0</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0</v>
+      </c>
+      <c r="I499" t="n">
+        <v>0</v>
+      </c>
+      <c r="J499" t="n">
+        <v>2</v>
+      </c>
+      <c r="K499" t="n">
+        <v>6</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M499" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N499" t="n">
+        <v>8</v>
+      </c>
+      <c r="O499" t="n">
+        <v>9</v>
+      </c>
+      <c r="P499" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q499" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R499" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S499" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T499" t="n">
+        <v>5</v>
+      </c>
+      <c r="U499" t="n">
+        <v>0</v>
+      </c>
+      <c r="V499" t="n">
+        <v>0</v>
+      </c>
+      <c r="W499" t="n">
+        <v>0</v>
+      </c>
+      <c r="X499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z499" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA499" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB499" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC499" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD499" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE499" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF499" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Rocco</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D500" t="n">
+        <v>2</v>
+      </c>
+      <c r="E500" t="n">
+        <v>0</v>
+      </c>
+      <c r="F500" t="n">
+        <v>0</v>
+      </c>
+      <c r="G500" t="n">
+        <v>0</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0</v>
+      </c>
+      <c r="J500" t="n">
+        <v>2</v>
+      </c>
+      <c r="K500" t="n">
+        <v>6</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M500" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N500" t="n">
+        <v>8</v>
+      </c>
+      <c r="O500" t="n">
+        <v>9</v>
+      </c>
+      <c r="P500" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q500" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R500" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S500" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T500" t="n">
+        <v>5</v>
+      </c>
+      <c r="U500" t="n">
+        <v>2</v>
+      </c>
+      <c r="V500" t="n">
+        <v>0</v>
+      </c>
+      <c r="W500" t="n">
+        <v>0</v>
+      </c>
+      <c r="X500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z500" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA500" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB500" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC500" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD500" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE500" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF500" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Fabrizio Limonta</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>0</v>
+      </c>
+      <c r="E501" t="n">
+        <v>0</v>
+      </c>
+      <c r="F501" t="n">
+        <v>0</v>
+      </c>
+      <c r="G501" t="n">
+        <v>0</v>
+      </c>
+      <c r="H501" t="n">
+        <v>0</v>
+      </c>
+      <c r="I501" t="n">
+        <v>0</v>
+      </c>
+      <c r="J501" t="n">
+        <v>2</v>
+      </c>
+      <c r="K501" t="n">
+        <v>6</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M501" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N501" t="n">
+        <v>8</v>
+      </c>
+      <c r="O501" t="n">
+        <v>9</v>
+      </c>
+      <c r="P501" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q501" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R501" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S501" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T501" t="n">
+        <v>5</v>
+      </c>
+      <c r="U501" t="n">
+        <v>0</v>
+      </c>
+      <c r="V501" t="n">
+        <v>0</v>
+      </c>
+      <c r="W501" t="n">
+        <v>0</v>
+      </c>
+      <c r="X501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z501" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA501" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB501" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC501" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD501" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE501" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF501" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Damiano Barbanera</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D502" t="n">
+        <v>1</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0</v>
+      </c>
+      <c r="F502" t="n">
+        <v>0</v>
+      </c>
+      <c r="G502" t="n">
+        <v>0</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0</v>
+      </c>
+      <c r="I502" t="n">
+        <v>0</v>
+      </c>
+      <c r="J502" t="n">
+        <v>2</v>
+      </c>
+      <c r="K502" t="n">
+        <v>6</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N502" t="n">
+        <v>8</v>
+      </c>
+      <c r="O502" t="n">
+        <v>9</v>
+      </c>
+      <c r="P502" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q502" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R502" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S502" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T502" t="n">
+        <v>5</v>
+      </c>
+      <c r="U502" t="n">
+        <v>1</v>
+      </c>
+      <c r="V502" t="n">
+        <v>0</v>
+      </c>
+      <c r="W502" t="n">
+        <v>0</v>
+      </c>
+      <c r="X502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z502" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA502" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB502" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC502" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD502" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE502" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF502" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Andrea Limonta</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D503" t="n">
+        <v>0</v>
+      </c>
+      <c r="E503" t="n">
+        <v>0</v>
+      </c>
+      <c r="F503" t="n">
+        <v>0</v>
+      </c>
+      <c r="G503" t="n">
+        <v>0</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0</v>
+      </c>
+      <c r="I503" t="n">
+        <v>0</v>
+      </c>
+      <c r="J503" t="n">
+        <v>2</v>
+      </c>
+      <c r="K503" t="n">
+        <v>6</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N503" t="n">
+        <v>8</v>
+      </c>
+      <c r="O503" t="n">
+        <v>9</v>
+      </c>
+      <c r="P503" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q503" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R503" t="n">
+        <v>1</v>
+      </c>
+      <c r="S503" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T503" t="n">
+        <v>5</v>
+      </c>
+      <c r="U503" t="n">
+        <v>0</v>
+      </c>
+      <c r="V503" t="n">
+        <v>0</v>
+      </c>
+      <c r="W503" t="n">
+        <v>0</v>
+      </c>
+      <c r="X503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z503" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA503" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB503" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC503" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD503" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE503" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF503" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Luca Stoppi</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>1</v>
+      </c>
+      <c r="E504" t="n">
+        <v>0</v>
+      </c>
+      <c r="F504" t="n">
+        <v>0</v>
+      </c>
+      <c r="G504" t="n">
+        <v>0</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0</v>
+      </c>
+      <c r="I504" t="n">
+        <v>0</v>
+      </c>
+      <c r="J504" t="n">
+        <v>2</v>
+      </c>
+      <c r="K504" t="n">
+        <v>6</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M504" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N504" t="n">
+        <v>8</v>
+      </c>
+      <c r="O504" t="n">
+        <v>9</v>
+      </c>
+      <c r="P504" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q504" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R504" t="n">
+        <v>1</v>
+      </c>
+      <c r="S504" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T504" t="n">
+        <v>5</v>
+      </c>
+      <c r="U504" t="n">
+        <v>1</v>
+      </c>
+      <c r="V504" t="n">
+        <v>0</v>
+      </c>
+      <c r="W504" t="n">
+        <v>0</v>
+      </c>
+      <c r="X504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z504" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA504" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB504" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC504" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD504" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE504" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF504" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Mazzu</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D505" t="n">
+        <v>5</v>
+      </c>
+      <c r="E505" t="n">
+        <v>0</v>
+      </c>
+      <c r="F505" t="n">
+        <v>0</v>
+      </c>
+      <c r="G505" t="n">
+        <v>0</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0</v>
+      </c>
+      <c r="I505" t="n">
+        <v>0</v>
+      </c>
+      <c r="J505" t="n">
+        <v>2</v>
+      </c>
+      <c r="K505" t="n">
+        <v>6</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M505" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N505" t="n">
+        <v>8</v>
+      </c>
+      <c r="O505" t="n">
+        <v>9</v>
+      </c>
+      <c r="P505" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q505" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R505" t="n">
+        <v>1</v>
+      </c>
+      <c r="S505" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T505" t="n">
+        <v>5</v>
+      </c>
+      <c r="U505" t="n">
+        <v>5</v>
+      </c>
+      <c r="V505" t="n">
+        <v>0</v>
+      </c>
+      <c r="W505" t="n">
+        <v>0</v>
+      </c>
+      <c r="X505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z505" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA505" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB505" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC505" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD505" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE505" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF505" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Federico Paolucci</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D506" t="n">
+        <v>0</v>
+      </c>
+      <c r="E506" t="n">
+        <v>0</v>
+      </c>
+      <c r="F506" t="n">
+        <v>0</v>
+      </c>
+      <c r="G506" t="n">
+        <v>0</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0</v>
+      </c>
+      <c r="I506" t="n">
+        <v>0</v>
+      </c>
+      <c r="J506" t="n">
+        <v>2</v>
+      </c>
+      <c r="K506" t="n">
+        <v>6</v>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M506" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N506" t="n">
+        <v>8</v>
+      </c>
+      <c r="O506" t="n">
+        <v>9</v>
+      </c>
+      <c r="P506" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q506" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R506" t="n">
+        <v>1</v>
+      </c>
+      <c r="S506" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T506" t="n">
+        <v>5</v>
+      </c>
+      <c r="U506" t="n">
+        <v>0</v>
+      </c>
+      <c r="V506" t="n">
+        <v>0</v>
+      </c>
+      <c r="W506" t="n">
+        <v>0</v>
+      </c>
+      <c r="X506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z506" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA506" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB506" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC506" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD506" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE506" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF506" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D507" t="n">
+        <v>2</v>
+      </c>
+      <c r="E507" t="n">
+        <v>0</v>
+      </c>
+      <c r="F507" t="n">
+        <v>0</v>
+      </c>
+      <c r="G507" t="n">
+        <v>0</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0</v>
+      </c>
+      <c r="I507" t="n">
+        <v>0</v>
+      </c>
+      <c r="J507" t="n">
+        <v>2</v>
+      </c>
+      <c r="K507" t="n">
+        <v>6</v>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M507" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N507" t="n">
+        <v>8</v>
+      </c>
+      <c r="O507" t="n">
+        <v>9</v>
+      </c>
+      <c r="P507" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q507" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R507" t="n">
+        <v>1</v>
+      </c>
+      <c r="S507" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T507" t="n">
+        <v>5</v>
+      </c>
+      <c r="U507" t="n">
+        <v>2</v>
+      </c>
+      <c r="V507" t="n">
+        <v>0</v>
+      </c>
+      <c r="W507" t="n">
+        <v>0</v>
+      </c>
+      <c r="X507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z507" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA507" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB507" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC507" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD507" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE507" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF507" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Gianluca</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D508" t="n">
+        <v>0</v>
+      </c>
+      <c r="E508" t="n">
+        <v>1</v>
+      </c>
+      <c r="F508" t="n">
+        <v>0</v>
+      </c>
+      <c r="G508" t="n">
+        <v>1</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0</v>
+      </c>
+      <c r="I508" t="n">
+        <v>0</v>
+      </c>
+      <c r="J508" t="n">
+        <v>2</v>
+      </c>
+      <c r="K508" t="n">
+        <v>6</v>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M508" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N508" t="n">
+        <v>8</v>
+      </c>
+      <c r="O508" t="n">
+        <v>9</v>
+      </c>
+      <c r="P508" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q508" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R508" t="n">
+        <v>1</v>
+      </c>
+      <c r="S508" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T508" t="n">
+        <v>5</v>
+      </c>
+      <c r="U508" t="n">
+        <v>0</v>
+      </c>
+      <c r="V508" t="n">
+        <v>-2</v>
+      </c>
+      <c r="W508" t="n">
+        <v>0</v>
+      </c>
+      <c r="X508" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z508" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA508" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB508" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC508" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD508" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE508" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF508" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Sergio</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D509" t="n">
+        <v>1</v>
+      </c>
+      <c r="E509" t="n">
+        <v>0</v>
+      </c>
+      <c r="F509" t="n">
+        <v>0</v>
+      </c>
+      <c r="G509" t="n">
+        <v>0</v>
+      </c>
+      <c r="H509" t="n">
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>0</v>
+      </c>
+      <c r="J509" t="n">
+        <v>2</v>
+      </c>
+      <c r="K509" t="n">
+        <v>6</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M509" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N509" t="n">
+        <v>8</v>
+      </c>
+      <c r="O509" t="n">
+        <v>9</v>
+      </c>
+      <c r="P509" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q509" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R509" t="n">
+        <v>1</v>
+      </c>
+      <c r="S509" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T509" t="n">
+        <v>5</v>
+      </c>
+      <c r="U509" t="n">
+        <v>1</v>
+      </c>
+      <c r="V509" t="n">
+        <v>0</v>
+      </c>
+      <c r="W509" t="n">
+        <v>0</v>
+      </c>
+      <c r="X509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y509" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z509" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA509" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB509" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC509" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD509" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE509" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF509" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Mirko (Cava)</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D510" t="n">
+        <v>0</v>
+      </c>
+      <c r="E510" t="n">
+        <v>0</v>
+      </c>
+      <c r="F510" t="n">
+        <v>0</v>
+      </c>
+      <c r="G510" t="n">
+        <v>0</v>
+      </c>
+      <c r="H510" t="n">
+        <v>0</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0</v>
+      </c>
+      <c r="J510" t="n">
+        <v>2</v>
+      </c>
+      <c r="K510" t="n">
+        <v>6</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M510" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N510" t="n">
+        <v>8</v>
+      </c>
+      <c r="O510" t="n">
+        <v>9</v>
+      </c>
+      <c r="P510" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q510" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R510" t="n">
+        <v>1</v>
+      </c>
+      <c r="S510" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T510" t="n">
+        <v>5</v>
+      </c>
+      <c r="U510" t="n">
+        <v>0</v>
+      </c>
+      <c r="V510" t="n">
+        <v>0</v>
+      </c>
+      <c r="W510" t="n">
+        <v>0</v>
+      </c>
+      <c r="X510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z510" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA510" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB510" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC510" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD510" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE510" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF510" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/Milano/points_Milano.xlsx
+++ b/Excel/Milano/points_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF510"/>
+  <dimension ref="A1:AF526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56589,6 +56589,1766 @@
         <v>10</v>
       </c>
     </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Cameron McAinsh</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D511" t="n">
+        <v>0</v>
+      </c>
+      <c r="E511" t="n">
+        <v>0</v>
+      </c>
+      <c r="F511" t="n">
+        <v>0</v>
+      </c>
+      <c r="G511" t="n">
+        <v>0</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0</v>
+      </c>
+      <c r="I511" t="n">
+        <v>0</v>
+      </c>
+      <c r="J511" t="n">
+        <v>2</v>
+      </c>
+      <c r="K511" t="n">
+        <v>7</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M511" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N511" t="n">
+        <v>4</v>
+      </c>
+      <c r="O511" t="n">
+        <v>10</v>
+      </c>
+      <c r="P511" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q511" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R511" t="n">
+        <v>-6</v>
+      </c>
+      <c r="S511" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T511" t="n">
+        <v>5</v>
+      </c>
+      <c r="U511" t="n">
+        <v>0</v>
+      </c>
+      <c r="V511" t="n">
+        <v>0</v>
+      </c>
+      <c r="W511" t="n">
+        <v>0</v>
+      </c>
+      <c r="X511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z511" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA511" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB511" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC511" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD511" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE511" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF511" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Daniele Miccoli</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D512" t="n">
+        <v>2</v>
+      </c>
+      <c r="E512" t="n">
+        <v>0</v>
+      </c>
+      <c r="F512" t="n">
+        <v>0</v>
+      </c>
+      <c r="G512" t="n">
+        <v>0</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0</v>
+      </c>
+      <c r="I512" t="n">
+        <v>0</v>
+      </c>
+      <c r="J512" t="n">
+        <v>2</v>
+      </c>
+      <c r="K512" t="n">
+        <v>7</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M512" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N512" t="n">
+        <v>4</v>
+      </c>
+      <c r="O512" t="n">
+        <v>10</v>
+      </c>
+      <c r="P512" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q512" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R512" t="n">
+        <v>-6</v>
+      </c>
+      <c r="S512" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T512" t="n">
+        <v>5</v>
+      </c>
+      <c r="U512" t="n">
+        <v>2</v>
+      </c>
+      <c r="V512" t="n">
+        <v>0</v>
+      </c>
+      <c r="W512" t="n">
+        <v>0</v>
+      </c>
+      <c r="X512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z512" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA512" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB512" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC512" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD512" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE512" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF512" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Fabrizio Limonta</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D513" t="n">
+        <v>0</v>
+      </c>
+      <c r="E513" t="n">
+        <v>0</v>
+      </c>
+      <c r="F513" t="n">
+        <v>0</v>
+      </c>
+      <c r="G513" t="n">
+        <v>0</v>
+      </c>
+      <c r="H513" t="n">
+        <v>0</v>
+      </c>
+      <c r="I513" t="n">
+        <v>0</v>
+      </c>
+      <c r="J513" t="n">
+        <v>2</v>
+      </c>
+      <c r="K513" t="n">
+        <v>7</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N513" t="n">
+        <v>4</v>
+      </c>
+      <c r="O513" t="n">
+        <v>10</v>
+      </c>
+      <c r="P513" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q513" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R513" t="n">
+        <v>-6</v>
+      </c>
+      <c r="S513" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T513" t="n">
+        <v>5</v>
+      </c>
+      <c r="U513" t="n">
+        <v>0</v>
+      </c>
+      <c r="V513" t="n">
+        <v>0</v>
+      </c>
+      <c r="W513" t="n">
+        <v>0</v>
+      </c>
+      <c r="X513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z513" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA513" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB513" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC513" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD513" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE513" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF513" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Maurizio</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D514" t="n">
+        <v>1</v>
+      </c>
+      <c r="E514" t="n">
+        <v>0</v>
+      </c>
+      <c r="F514" t="n">
+        <v>0</v>
+      </c>
+      <c r="G514" t="n">
+        <v>0</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0</v>
+      </c>
+      <c r="I514" t="n">
+        <v>0</v>
+      </c>
+      <c r="J514" t="n">
+        <v>2</v>
+      </c>
+      <c r="K514" t="n">
+        <v>7</v>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N514" t="n">
+        <v>4</v>
+      </c>
+      <c r="O514" t="n">
+        <v>10</v>
+      </c>
+      <c r="P514" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q514" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R514" t="n">
+        <v>-6</v>
+      </c>
+      <c r="S514" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T514" t="n">
+        <v>5</v>
+      </c>
+      <c r="U514" t="n">
+        <v>1</v>
+      </c>
+      <c r="V514" t="n">
+        <v>0</v>
+      </c>
+      <c r="W514" t="n">
+        <v>0</v>
+      </c>
+      <c r="X514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z514" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA514" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB514" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC514" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD514" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE514" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF514" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Rocco</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D515" t="n">
+        <v>1</v>
+      </c>
+      <c r="E515" t="n">
+        <v>0</v>
+      </c>
+      <c r="F515" t="n">
+        <v>0</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0</v>
+      </c>
+      <c r="H515" t="n">
+        <v>0</v>
+      </c>
+      <c r="I515" t="n">
+        <v>0</v>
+      </c>
+      <c r="J515" t="n">
+        <v>2</v>
+      </c>
+      <c r="K515" t="n">
+        <v>7</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M515" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N515" t="n">
+        <v>4</v>
+      </c>
+      <c r="O515" t="n">
+        <v>10</v>
+      </c>
+      <c r="P515" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q515" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R515" t="n">
+        <v>-6</v>
+      </c>
+      <c r="S515" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T515" t="n">
+        <v>5</v>
+      </c>
+      <c r="U515" t="n">
+        <v>1</v>
+      </c>
+      <c r="V515" t="n">
+        <v>0</v>
+      </c>
+      <c r="W515" t="n">
+        <v>0</v>
+      </c>
+      <c r="X515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z515" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA515" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB515" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC515" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD515" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE515" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF515" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Andrea Silverstri</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D516" t="n">
+        <v>0</v>
+      </c>
+      <c r="E516" t="n">
+        <v>0</v>
+      </c>
+      <c r="F516" t="n">
+        <v>0</v>
+      </c>
+      <c r="G516" t="n">
+        <v>0</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0</v>
+      </c>
+      <c r="J516" t="n">
+        <v>2</v>
+      </c>
+      <c r="K516" t="n">
+        <v>7</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M516" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N516" t="n">
+        <v>4</v>
+      </c>
+      <c r="O516" t="n">
+        <v>10</v>
+      </c>
+      <c r="P516" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q516" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R516" t="n">
+        <v>-6</v>
+      </c>
+      <c r="S516" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T516" t="n">
+        <v>5</v>
+      </c>
+      <c r="U516" t="n">
+        <v>0</v>
+      </c>
+      <c r="V516" t="n">
+        <v>0</v>
+      </c>
+      <c r="W516" t="n">
+        <v>0</v>
+      </c>
+      <c r="X516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z516" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA516" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB516" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC516" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD516" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE516" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF516" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Cri Diaz Lopez</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D517" t="n">
+        <v>0</v>
+      </c>
+      <c r="E517" t="n">
+        <v>0</v>
+      </c>
+      <c r="F517" t="n">
+        <v>0</v>
+      </c>
+      <c r="G517" t="n">
+        <v>0</v>
+      </c>
+      <c r="H517" t="n">
+        <v>0</v>
+      </c>
+      <c r="I517" t="n">
+        <v>0</v>
+      </c>
+      <c r="J517" t="n">
+        <v>2</v>
+      </c>
+      <c r="K517" t="n">
+        <v>7</v>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M517" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N517" t="n">
+        <v>4</v>
+      </c>
+      <c r="O517" t="n">
+        <v>10</v>
+      </c>
+      <c r="P517" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q517" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R517" t="n">
+        <v>-6</v>
+      </c>
+      <c r="S517" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T517" t="n">
+        <v>5</v>
+      </c>
+      <c r="U517" t="n">
+        <v>0</v>
+      </c>
+      <c r="V517" t="n">
+        <v>0</v>
+      </c>
+      <c r="W517" t="n">
+        <v>0</v>
+      </c>
+      <c r="X517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z517" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA517" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB517" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC517" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD517" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE517" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF517" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Coyote (Cri)</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="D518" t="n">
+        <v>0</v>
+      </c>
+      <c r="E518" t="n">
+        <v>0</v>
+      </c>
+      <c r="F518" t="n">
+        <v>0</v>
+      </c>
+      <c r="G518" t="n">
+        <v>1</v>
+      </c>
+      <c r="H518" t="n">
+        <v>0</v>
+      </c>
+      <c r="I518" t="n">
+        <v>0</v>
+      </c>
+      <c r="J518" t="n">
+        <v>2</v>
+      </c>
+      <c r="K518" t="n">
+        <v>7</v>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N518" t="n">
+        <v>4</v>
+      </c>
+      <c r="O518" t="n">
+        <v>10</v>
+      </c>
+      <c r="P518" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q518" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R518" t="n">
+        <v>-6</v>
+      </c>
+      <c r="S518" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="T518" t="n">
+        <v>5</v>
+      </c>
+      <c r="U518" t="n">
+        <v>0</v>
+      </c>
+      <c r="V518" t="n">
+        <v>0</v>
+      </c>
+      <c r="W518" t="n">
+        <v>0</v>
+      </c>
+      <c r="X518" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z518" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA518" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB518" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC518" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD518" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE518" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF518" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Andrea Limonta</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D519" t="n">
+        <v>0</v>
+      </c>
+      <c r="E519" t="n">
+        <v>0</v>
+      </c>
+      <c r="F519" t="n">
+        <v>0</v>
+      </c>
+      <c r="G519" t="n">
+        <v>0</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0</v>
+      </c>
+      <c r="I519" t="n">
+        <v>0</v>
+      </c>
+      <c r="J519" t="n">
+        <v>2</v>
+      </c>
+      <c r="K519" t="n">
+        <v>7</v>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M519" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N519" t="n">
+        <v>4</v>
+      </c>
+      <c r="O519" t="n">
+        <v>10</v>
+      </c>
+      <c r="P519" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q519" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R519" t="n">
+        <v>6</v>
+      </c>
+      <c r="S519" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T519" t="n">
+        <v>5</v>
+      </c>
+      <c r="U519" t="n">
+        <v>0</v>
+      </c>
+      <c r="V519" t="n">
+        <v>0</v>
+      </c>
+      <c r="W519" t="n">
+        <v>0</v>
+      </c>
+      <c r="X519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z519" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA519" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB519" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC519" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD519" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE519" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF519" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Luca Stoppi</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D520" t="n">
+        <v>2</v>
+      </c>
+      <c r="E520" t="n">
+        <v>0</v>
+      </c>
+      <c r="F520" t="n">
+        <v>0</v>
+      </c>
+      <c r="G520" t="n">
+        <v>0</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0</v>
+      </c>
+      <c r="I520" t="n">
+        <v>0</v>
+      </c>
+      <c r="J520" t="n">
+        <v>2</v>
+      </c>
+      <c r="K520" t="n">
+        <v>7</v>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M520" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N520" t="n">
+        <v>4</v>
+      </c>
+      <c r="O520" t="n">
+        <v>10</v>
+      </c>
+      <c r="P520" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q520" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R520" t="n">
+        <v>6</v>
+      </c>
+      <c r="S520" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T520" t="n">
+        <v>5</v>
+      </c>
+      <c r="U520" t="n">
+        <v>2</v>
+      </c>
+      <c r="V520" t="n">
+        <v>0</v>
+      </c>
+      <c r="W520" t="n">
+        <v>0</v>
+      </c>
+      <c r="X520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z520" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA520" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB520" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC520" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD520" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE520" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF520" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Federico Paolucci</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D521" t="n">
+        <v>0</v>
+      </c>
+      <c r="E521" t="n">
+        <v>0</v>
+      </c>
+      <c r="F521" t="n">
+        <v>0</v>
+      </c>
+      <c r="G521" t="n">
+        <v>0</v>
+      </c>
+      <c r="H521" t="n">
+        <v>0</v>
+      </c>
+      <c r="I521" t="n">
+        <v>0</v>
+      </c>
+      <c r="J521" t="n">
+        <v>2</v>
+      </c>
+      <c r="K521" t="n">
+        <v>7</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M521" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N521" t="n">
+        <v>4</v>
+      </c>
+      <c r="O521" t="n">
+        <v>10</v>
+      </c>
+      <c r="P521" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q521" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R521" t="n">
+        <v>6</v>
+      </c>
+      <c r="S521" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T521" t="n">
+        <v>5</v>
+      </c>
+      <c r="U521" t="n">
+        <v>0</v>
+      </c>
+      <c r="V521" t="n">
+        <v>0</v>
+      </c>
+      <c r="W521" t="n">
+        <v>0</v>
+      </c>
+      <c r="X521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z521" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA521" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB521" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC521" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD521" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE521" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF521" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Gian Scotti</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D522" t="n">
+        <v>1</v>
+      </c>
+      <c r="E522" t="n">
+        <v>0</v>
+      </c>
+      <c r="F522" t="n">
+        <v>1</v>
+      </c>
+      <c r="G522" t="n">
+        <v>0</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0</v>
+      </c>
+      <c r="I522" t="n">
+        <v>0</v>
+      </c>
+      <c r="J522" t="n">
+        <v>2</v>
+      </c>
+      <c r="K522" t="n">
+        <v>7</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M522" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N522" t="n">
+        <v>4</v>
+      </c>
+      <c r="O522" t="n">
+        <v>10</v>
+      </c>
+      <c r="P522" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q522" t="inlineStr">
+        <is>
+          <t>Defensive</t>
+        </is>
+      </c>
+      <c r="R522" t="n">
+        <v>6</v>
+      </c>
+      <c r="S522" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T522" t="n">
+        <v>5</v>
+      </c>
+      <c r="U522" t="n">
+        <v>1</v>
+      </c>
+      <c r="V522" t="n">
+        <v>0</v>
+      </c>
+      <c r="W522" t="n">
+        <v>3</v>
+      </c>
+      <c r="X522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z522" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA522" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB522" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC522" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD522" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE522" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF522" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Mazzu</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D523" t="n">
+        <v>4</v>
+      </c>
+      <c r="E523" t="n">
+        <v>0</v>
+      </c>
+      <c r="F523" t="n">
+        <v>0</v>
+      </c>
+      <c r="G523" t="n">
+        <v>0</v>
+      </c>
+      <c r="H523" t="n">
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>0</v>
+      </c>
+      <c r="J523" t="n">
+        <v>2</v>
+      </c>
+      <c r="K523" t="n">
+        <v>7</v>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N523" t="n">
+        <v>4</v>
+      </c>
+      <c r="O523" t="n">
+        <v>10</v>
+      </c>
+      <c r="P523" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q523" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R523" t="n">
+        <v>6</v>
+      </c>
+      <c r="S523" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T523" t="n">
+        <v>5</v>
+      </c>
+      <c r="U523" t="n">
+        <v>4</v>
+      </c>
+      <c r="V523" t="n">
+        <v>0</v>
+      </c>
+      <c r="W523" t="n">
+        <v>0</v>
+      </c>
+      <c r="X523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y523" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z523" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA523" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB523" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC523" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD523" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE523" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF523" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Gianluca</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D524" t="n">
+        <v>0</v>
+      </c>
+      <c r="E524" t="n">
+        <v>0</v>
+      </c>
+      <c r="F524" t="n">
+        <v>0</v>
+      </c>
+      <c r="G524" t="n">
+        <v>0</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0</v>
+      </c>
+      <c r="I524" t="n">
+        <v>1</v>
+      </c>
+      <c r="J524" t="n">
+        <v>2</v>
+      </c>
+      <c r="K524" t="n">
+        <v>7</v>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M524" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N524" t="n">
+        <v>4</v>
+      </c>
+      <c r="O524" t="n">
+        <v>10</v>
+      </c>
+      <c r="P524" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q524" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R524" t="n">
+        <v>6</v>
+      </c>
+      <c r="S524" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T524" t="n">
+        <v>5</v>
+      </c>
+      <c r="U524" t="n">
+        <v>0</v>
+      </c>
+      <c r="V524" t="n">
+        <v>0</v>
+      </c>
+      <c r="W524" t="n">
+        <v>0</v>
+      </c>
+      <c r="X524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z524" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AA524" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB524" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC524" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD524" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE524" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF524" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Robi (Stoppi)</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D525" t="n">
+        <v>0</v>
+      </c>
+      <c r="E525" t="n">
+        <v>0</v>
+      </c>
+      <c r="F525" t="n">
+        <v>0</v>
+      </c>
+      <c r="G525" t="n">
+        <v>0</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0</v>
+      </c>
+      <c r="I525" t="n">
+        <v>0</v>
+      </c>
+      <c r="J525" t="n">
+        <v>2</v>
+      </c>
+      <c r="K525" t="n">
+        <v>7</v>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M525" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N525" t="n">
+        <v>4</v>
+      </c>
+      <c r="O525" t="n">
+        <v>10</v>
+      </c>
+      <c r="P525" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q525" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R525" t="n">
+        <v>6</v>
+      </c>
+      <c r="S525" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T525" t="n">
+        <v>5</v>
+      </c>
+      <c r="U525" t="n">
+        <v>0</v>
+      </c>
+      <c r="V525" t="n">
+        <v>0</v>
+      </c>
+      <c r="W525" t="n">
+        <v>0</v>
+      </c>
+      <c r="X525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z525" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA525" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB525" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC525" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD525" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE525" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF525" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Damiano Barbanera</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="D526" t="n">
+        <v>3</v>
+      </c>
+      <c r="E526" t="n">
+        <v>0</v>
+      </c>
+      <c r="F526" t="n">
+        <v>0</v>
+      </c>
+      <c r="G526" t="n">
+        <v>0</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0</v>
+      </c>
+      <c r="I526" t="n">
+        <v>0</v>
+      </c>
+      <c r="J526" t="n">
+        <v>2</v>
+      </c>
+      <c r="K526" t="n">
+        <v>7</v>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="M526" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="N526" t="n">
+        <v>4</v>
+      </c>
+      <c r="O526" t="n">
+        <v>10</v>
+      </c>
+      <c r="P526" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q526" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="R526" t="n">
+        <v>6</v>
+      </c>
+      <c r="S526" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="T526" t="n">
+        <v>5</v>
+      </c>
+      <c r="U526" t="n">
+        <v>3</v>
+      </c>
+      <c r="V526" t="n">
+        <v>0</v>
+      </c>
+      <c r="W526" t="n">
+        <v>0</v>
+      </c>
+      <c r="X526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z526" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA526" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB526" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC526" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD526" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE526" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF526" t="n">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/Milano/points_Milano.xlsx
+++ b/Excel/Milano/points_Milano.xlsx
@@ -56232,7 +56232,7 @@
         <v>0</v>
       </c>
       <c r="G567">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H567">
         <v>0</v>
@@ -56283,7 +56283,7 @@
         <v>0</v>
       </c>
       <c r="X567">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y567">
         <v>0</v>
@@ -56307,7 +56307,7 @@
         <v>3</v>
       </c>
       <c r="AF567">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="568" spans="1:32">
@@ -56327,7 +56327,7 @@
         <v>0</v>
       </c>
       <c r="F568">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G568">
         <v>0</v>
@@ -56378,7 +56378,7 @@
         <v>0</v>
       </c>
       <c r="W568">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X568">
         <v>0</v>
@@ -56405,7 +56405,7 @@
         <v>3</v>
       </c>
       <c r="AF568">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="569" spans="1:32">
